--- a/docs/summary-measurereport-deqm.xlsx
+++ b/docs/summary-measurereport-deqm.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AK$68</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AK$84</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2220" uniqueCount="299">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2754" uniqueCount="351">
   <si>
     <t>Path</t>
   </si>
@@ -809,6 +809,141 @@
     <t>The measure score for this population group, calculated as appropriate for the measure type and scoring method, and based on the contents of the populations defined in the group.</t>
   </si>
   <si>
+    <t>MeasureReport.group.measureScore.id</t>
+  </si>
+  <si>
+    <t>MeasureReport.group.measureScore.extension</t>
+  </si>
+  <si>
+    <t>altscoretype</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/davinci-deqm/StructureDefinition/extension-alternateScoreType}
+</t>
+  </si>
+  <si>
+    <t>Possible additional measureScore value types</t>
+  </si>
+  <si>
+    <t>Possible value types for the measureScore elements *in addition to* the standard [Quantity](http://hl7.org/fhir/STU3/datatypes.html#quantity) type. The alternate type is determined by the Quality Measure [Aggregate Method](http://hl7.org/fhir/us/cqfmeasures/2019May/StructureDefinition-cqfm-aggregateMethod.html) extension used on the Measure.   The reported type of the measureScore for continuous variable measures is determined by the result type of the aggregate method operation.</t>
+  </si>
+  <si>
+    <t>This extension corresponds to the additional MeasureScore type added to the R5 version of MeasureReport.</t>
+  </si>
+  <si>
+    <t>MeasureReport.group.measureScore.value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">decimal
+</t>
+  </si>
+  <si>
+    <t>Numerical value (with implicit precision)</t>
+  </si>
+  <si>
+    <t>The value of the measured amount. The value includes an implicit precision in the presentation of the value.</t>
+  </si>
+  <si>
+    <t>The implicit precision in the value should always be honored. Monetary values have their own rules for handling precision (refer to standard accounting text books).</t>
+  </si>
+  <si>
+    <t>Precision is handled implicitly in almost all cases of measurement.</t>
+  </si>
+  <si>
+    <t>Quantity.value</t>
+  </si>
+  <si>
+    <t>PQ.value, CO.value, MO.value, IVL.high or IVL.low depending on the value</t>
+  </si>
+  <si>
+    <t>MeasureReport.group.measureScore.comparator</t>
+  </si>
+  <si>
+    <t>&lt; | &lt;= | &gt;= | &gt; - how to understand the value</t>
+  </si>
+  <si>
+    <t>How the value should be understood and represented - whether the actual value is greater or less than the stated value due to measurement issues; e.g. if the comparator is "&lt;" , then the real value is &lt; stated value.</t>
+  </si>
+  <si>
+    <t>Need a framework for handling measures where the value is &lt;5ug/L or &gt;400mg/L due to the limitations of measuring methodology.</t>
+  </si>
+  <si>
+    <t>If there is no comparator, then there is no modification of the value</t>
+  </si>
+  <si>
+    <t>How the Quantity should be understood and represented.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/quantity-comparator|4.0.0</t>
+  </si>
+  <si>
+    <t>Quantity.comparator</t>
+  </si>
+  <si>
+    <t>IVL properties</t>
+  </si>
+  <si>
+    <t>MeasureReport.group.measureScore.unit</t>
+  </si>
+  <si>
+    <t>Unit representation</t>
+  </si>
+  <si>
+    <t>A human-readable form of the unit.</t>
+  </si>
+  <si>
+    <t>There are many representations for units of measure and in many contexts, particular representations are fixed and required. I.e. mcg for micrograms.</t>
+  </si>
+  <si>
+    <t>Quantity.unit</t>
+  </si>
+  <si>
+    <t>PQ.unit</t>
+  </si>
+  <si>
+    <t>MeasureReport.group.measureScore.system</t>
+  </si>
+  <si>
+    <t>System that defines coded unit form</t>
+  </si>
+  <si>
+    <t>The identification of the system that provides the coded form of the unit.</t>
+  </si>
+  <si>
+    <t>Need to know the system that defines the coded form of the unit.</t>
+  </si>
+  <si>
+    <t>Quantity.system</t>
+  </si>
+  <si>
+    <t xml:space="preserve">qty-3
+</t>
+  </si>
+  <si>
+    <t>CO.codeSystem, PQ.translation.codeSystem</t>
+  </si>
+  <si>
+    <t>MeasureReport.group.measureScore.code</t>
+  </si>
+  <si>
+    <t>Coded form of the unit</t>
+  </si>
+  <si>
+    <t>A computer processable form of the unit in some unit representation system.</t>
+  </si>
+  <si>
+    <t>The preferred system is UCUM, but SNOMED CT can also be used (for customary units) or ISO 4217 for currency.  The context of use may additionally require a code from a particular system.</t>
+  </si>
+  <si>
+    <t>Need a computable form of the unit that is fixed across all forms. UCUM provides this for quantities, but SNOMED CT provides many units of interest.</t>
+  </si>
+  <si>
+    <t>Quantity.code</t>
+  </si>
+  <si>
+    <t>PQ.code, MO.currency, PQ.translation.code</t>
+  </si>
+  <si>
     <t>MeasureReport.group.stratifier</t>
   </si>
   <si>
@@ -939,6 +1074,30 @@
   </si>
   <si>
     <t>The measure score for this stratum, calculated as appropriate for the measure type and scoring method, and based on only the members of this stratum.</t>
+  </si>
+  <si>
+    <t>MeasureReport.group.stratifier.stratum.measureScore.id</t>
+  </si>
+  <si>
+    <t>MeasureReport.group.stratifier.stratum.measureScore.extension</t>
+  </si>
+  <si>
+    <t>strataltscoretype</t>
+  </si>
+  <si>
+    <t>MeasureReport.group.stratifier.stratum.measureScore.value</t>
+  </si>
+  <si>
+    <t>MeasureReport.group.stratifier.stratum.measureScore.comparator</t>
+  </si>
+  <si>
+    <t>MeasureReport.group.stratifier.stratum.measureScore.unit</t>
+  </si>
+  <si>
+    <t>MeasureReport.group.stratifier.stratum.measureScore.system</t>
+  </si>
+  <si>
+    <t>MeasureReport.group.stratifier.stratum.measureScore.code</t>
   </si>
   <si>
     <t>MeasureReport.evaluatedResource</t>
@@ -1100,7 +1259,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AK68"/>
+  <dimension ref="A1:AK84"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1110,7 +1269,7 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="63.328125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="13.7265625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="15.9296875" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="38.45703125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="6.14453125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.58203125" customWidth="true" bestFit="true"/>
@@ -1145,7 +1304,7 @@
     <col min="34" max="34" width="12.71875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
     <col min="36" max="36" width="33.046875" customWidth="true" bestFit="true"/>
-    <col min="37" max="37" width="22.67578125" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="66.50390625" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -5641,7 +5800,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="44">
+    <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
         <v>251</v>
       </c>
@@ -5654,10 +5813,10 @@
         <v>39</v>
       </c>
       <c r="F44" t="s" s="2">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>38</v>
@@ -5666,13 +5825,13 @@
         <v>38</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>213</v>
+        <v>107</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>252</v>
+        <v>108</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>253</v>
+        <v>109</v>
       </c>
       <c r="M44" s="2"/>
       <c r="N44" s="2"/>
@@ -5723,41 +5882,41 @@
         <v>38</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>251</v>
+        <v>110</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="AH44" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>216</v>
+        <v>38</v>
       </c>
       <c r="AJ44" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>38</v>
+        <v>111</v>
       </c>
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
-        <v>38</v>
+        <v>113</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
         <v>39</v>
       </c>
       <c r="F45" t="s" s="2">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="G45" t="s" s="2">
         <v>38</v>
@@ -5769,15 +5928,17 @@
         <v>38</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>107</v>
+        <v>90</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="M45" s="2"/>
+        <v>115</v>
+      </c>
+      <c r="M45" t="s" s="2">
+        <v>116</v>
+      </c>
       <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
         <v>38</v>
@@ -5814,25 +5975,25 @@
         <v>38</v>
       </c>
       <c r="AA45" t="s" s="2">
-        <v>38</v>
+        <v>93</v>
       </c>
       <c r="AB45" t="s" s="2">
-        <v>38</v>
+        <v>117</v>
       </c>
       <c r="AC45" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AD45" t="s" s="2">
-        <v>38</v>
+        <v>94</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="AH45" t="s" s="2">
         <v>38</v>
@@ -5847,23 +6008,25 @@
         <v>111</v>
       </c>
     </row>
-    <row r="46" hidden="true">
+    <row r="46">
       <c r="A46" t="s" s="2">
-        <v>255</v>
-      </c>
-      <c r="B46" s="2"/>
+        <v>252</v>
+      </c>
+      <c r="B46" t="s" s="2">
+        <v>253</v>
+      </c>
       <c r="C46" t="s" s="2">
-        <v>113</v>
+        <v>38</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
         <v>39</v>
       </c>
       <c r="F46" t="s" s="2">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>38</v>
@@ -5872,16 +6035,16 @@
         <v>38</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>90</v>
+        <v>254</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>114</v>
+        <v>255</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>115</v>
+        <v>256</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>116</v>
+        <v>257</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
@@ -5949,47 +6112,47 @@
         <v>38</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>111</v>
+        <v>38</v>
       </c>
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
-        <v>220</v>
+        <v>38</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
         <v>39</v>
       </c>
       <c r="F47" t="s" s="2">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="G47" t="s" s="2">
         <v>38</v>
       </c>
       <c r="H47" t="s" s="2">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="I47" t="s" s="2">
         <v>47</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>90</v>
+        <v>259</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>221</v>
+        <v>260</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>222</v>
+        <v>261</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>116</v>
+        <v>262</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>137</v>
+        <v>263</v>
       </c>
       <c r="O47" t="s" s="2">
         <v>38</v>
@@ -6038,13 +6201,13 @@
         <v>38</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>223</v>
+        <v>264</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="AH47" t="s" s="2">
         <v>38</v>
@@ -6056,12 +6219,12 @@
         <v>38</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>88</v>
+        <v>265</v>
       </c>
     </row>
-    <row r="48">
+    <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>257</v>
+        <v>266</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -6069,35 +6232,39 @@
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="F48" t="s" s="2">
         <v>46</v>
       </c>
       <c r="G48" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="H48" t="s" s="2">
         <v>47</v>
       </c>
-      <c r="H48" t="s" s="2">
-        <v>38</v>
-      </c>
       <c r="I48" t="s" s="2">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>206</v>
+        <v>65</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>258</v>
+        <v>267</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>259</v>
+        <v>268</v>
       </c>
       <c r="M48" s="2"/>
-      <c r="N48" s="2"/>
+      <c r="N48" t="s" s="2">
+        <v>269</v>
+      </c>
       <c r="O48" t="s" s="2">
         <v>38</v>
       </c>
-      <c r="P48" s="2"/>
+      <c r="P48" t="s" s="2">
+        <v>270</v>
+      </c>
       <c r="Q48" t="s" s="2">
         <v>38</v>
       </c>
@@ -6117,13 +6284,13 @@
         <v>38</v>
       </c>
       <c r="W48" t="s" s="2">
-        <v>38</v>
+        <v>149</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>38</v>
+        <v>271</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>38</v>
+        <v>272</v>
       </c>
       <c r="Z48" t="s" s="2">
         <v>38</v>
@@ -6141,13 +6308,13 @@
         <v>38</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>257</v>
+        <v>273</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="AH48" t="s" s="2">
         <v>38</v>
@@ -6159,12 +6326,12 @@
         <v>38</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>38</v>
+        <v>274</v>
       </c>
     </row>
-    <row r="49">
+    <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>260</v>
+        <v>275</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -6175,28 +6342,30 @@
         <v>39</v>
       </c>
       <c r="F49" t="s" s="2">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="G49" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="H49" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I49" t="s" s="2">
         <v>47</v>
       </c>
-      <c r="H49" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I49" t="s" s="2">
-        <v>38</v>
-      </c>
       <c r="J49" t="s" s="2">
-        <v>213</v>
+        <v>107</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>261</v>
+        <v>276</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>262</v>
+        <v>277</v>
       </c>
       <c r="M49" s="2"/>
-      <c r="N49" s="2"/>
+      <c r="N49" t="s" s="2">
+        <v>278</v>
+      </c>
       <c r="O49" t="s" s="2">
         <v>38</v>
       </c>
@@ -6244,30 +6413,30 @@
         <v>38</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>260</v>
+        <v>279</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="AH49" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>216</v>
+        <v>38</v>
       </c>
       <c r="AJ49" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>38</v>
+        <v>280</v>
       </c>
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>263</v>
+        <v>281</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -6287,19 +6456,21 @@
         <v>38</v>
       </c>
       <c r="I50" t="s" s="2">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>107</v>
+        <v>59</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>108</v>
+        <v>282</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>109</v>
+        <v>283</v>
       </c>
       <c r="M50" s="2"/>
-      <c r="N50" s="2"/>
+      <c r="N50" t="s" s="2">
+        <v>284</v>
+      </c>
       <c r="O50" t="s" s="2">
         <v>38</v>
       </c>
@@ -6347,7 +6518,7 @@
         <v>38</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>110</v>
+        <v>285</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>39</v>
@@ -6356,7 +6527,7 @@
         <v>46</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>38</v>
+        <v>286</v>
       </c>
       <c r="AI50" t="s" s="2">
         <v>38</v>
@@ -6365,23 +6536,23 @@
         <v>38</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>111</v>
+        <v>287</v>
       </c>
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>264</v>
+        <v>288</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
-        <v>113</v>
+        <v>38</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
         <v>39</v>
       </c>
       <c r="F51" t="s" s="2">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="G51" t="s" s="2">
         <v>38</v>
@@ -6390,21 +6561,23 @@
         <v>38</v>
       </c>
       <c r="I51" t="s" s="2">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>90</v>
+        <v>65</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>114</v>
+        <v>289</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>115</v>
+        <v>290</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="N51" s="2"/>
+        <v>291</v>
+      </c>
+      <c r="N51" t="s" s="2">
+        <v>292</v>
+      </c>
       <c r="O51" t="s" s="2">
         <v>38</v>
       </c>
@@ -6452,13 +6625,13 @@
         <v>38</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>118</v>
+        <v>293</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="AH51" t="s" s="2">
         <v>38</v>
@@ -6470,16 +6643,16 @@
         <v>38</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>111</v>
+        <v>294</v>
       </c>
     </row>
-    <row r="52" hidden="true">
+    <row r="52">
       <c r="A52" t="s" s="2">
-        <v>265</v>
+        <v>295</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
-        <v>220</v>
+        <v>38</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" t="s" s="2">
@@ -6489,29 +6662,25 @@
         <v>40</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="H52" t="s" s="2">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="I52" t="s" s="2">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>90</v>
+        <v>213</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>221</v>
+        <v>296</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>222</v>
-      </c>
-      <c r="M52" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="N52" t="s" s="2">
-        <v>137</v>
-      </c>
+        <v>297</v>
+      </c>
+      <c r="M52" s="2"/>
+      <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
         <v>38</v>
       </c>
@@ -6559,7 +6728,7 @@
         <v>38</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>223</v>
+        <v>295</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>39</v>
@@ -6571,18 +6740,18 @@
         <v>38</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>38</v>
+        <v>216</v>
       </c>
       <c r="AJ52" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>88</v>
+        <v>38</v>
       </c>
     </row>
-    <row r="53">
+    <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>266</v>
+        <v>298</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -6596,7 +6765,7 @@
         <v>46</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="H53" t="s" s="2">
         <v>38</v>
@@ -6605,13 +6774,13 @@
         <v>38</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>206</v>
+        <v>107</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>267</v>
+        <v>108</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>268</v>
+        <v>109</v>
       </c>
       <c r="M53" s="2"/>
       <c r="N53" s="2"/>
@@ -6662,7 +6831,7 @@
         <v>38</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>266</v>
+        <v>110</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>39</v>
@@ -6680,16 +6849,16 @@
         <v>38</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>38</v>
+        <v>111</v>
       </c>
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>269</v>
+        <v>299</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
-        <v>38</v>
+        <v>113</v>
       </c>
       <c r="D54" s="2"/>
       <c r="E54" t="s" s="2">
@@ -6708,15 +6877,17 @@
         <v>38</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>213</v>
+        <v>90</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>270</v>
+        <v>114</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>271</v>
-      </c>
-      <c r="M54" s="2"/>
+        <v>115</v>
+      </c>
+      <c r="M54" t="s" s="2">
+        <v>116</v>
+      </c>
       <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
         <v>38</v>
@@ -6765,7 +6936,7 @@
         <v>38</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>269</v>
+        <v>118</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>39</v>
@@ -6777,50 +6948,54 @@
         <v>38</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>216</v>
+        <v>38</v>
       </c>
       <c r="AJ54" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>38</v>
+        <v>111</v>
       </c>
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>272</v>
+        <v>300</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
-        <v>38</v>
+        <v>220</v>
       </c>
       <c r="D55" s="2"/>
       <c r="E55" t="s" s="2">
         <v>39</v>
       </c>
       <c r="F55" t="s" s="2">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="G55" t="s" s="2">
         <v>38</v>
       </c>
       <c r="H55" t="s" s="2">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="I55" t="s" s="2">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>107</v>
+        <v>90</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>108</v>
+        <v>221</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="M55" s="2"/>
-      <c r="N55" s="2"/>
+        <v>222</v>
+      </c>
+      <c r="M55" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="N55" t="s" s="2">
+        <v>137</v>
+      </c>
       <c r="O55" t="s" s="2">
         <v>38</v>
       </c>
@@ -6868,13 +7043,13 @@
         <v>38</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>110</v>
+        <v>223</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AG55" t="s" s="2">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="AH55" t="s" s="2">
         <v>38</v>
@@ -6886,26 +7061,26 @@
         <v>38</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>111</v>
+        <v>88</v>
       </c>
     </row>
-    <row r="56" hidden="true">
+    <row r="56">
       <c r="A56" t="s" s="2">
-        <v>273</v>
+        <v>301</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
-        <v>113</v>
+        <v>38</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" t="s" s="2">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="F56" t="s" s="2">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="H56" t="s" s="2">
         <v>38</v>
@@ -6914,17 +7089,15 @@
         <v>38</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>90</v>
+        <v>206</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>114</v>
+        <v>302</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>115</v>
-      </c>
-      <c r="M56" t="s" s="2">
-        <v>116</v>
-      </c>
+        <v>303</v>
+      </c>
+      <c r="M56" s="2"/>
       <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
         <v>38</v>
@@ -6973,7 +7146,7 @@
         <v>38</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>118</v>
+        <v>301</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>39</v>
@@ -6991,16 +7164,16 @@
         <v>38</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>111</v>
+        <v>38</v>
       </c>
     </row>
-    <row r="57" hidden="true">
+    <row r="57">
       <c r="A57" t="s" s="2">
-        <v>274</v>
+        <v>304</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
-        <v>220</v>
+        <v>38</v>
       </c>
       <c r="D57" s="2"/>
       <c r="E57" t="s" s="2">
@@ -7010,29 +7183,25 @@
         <v>40</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="H57" t="s" s="2">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="I57" t="s" s="2">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>90</v>
+        <v>213</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>221</v>
+        <v>305</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>222</v>
-      </c>
-      <c r="M57" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="N57" t="s" s="2">
-        <v>137</v>
-      </c>
+        <v>306</v>
+      </c>
+      <c r="M57" s="2"/>
+      <c r="N57" s="2"/>
       <c r="O57" t="s" s="2">
         <v>38</v>
       </c>
@@ -7080,7 +7249,7 @@
         <v>38</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>223</v>
+        <v>304</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>39</v>
@@ -7092,18 +7261,18 @@
         <v>38</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>38</v>
+        <v>216</v>
       </c>
       <c r="AJ57" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>88</v>
+        <v>38</v>
       </c>
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>275</v>
+        <v>307</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -7111,7 +7280,7 @@
       </c>
       <c r="D58" s="2"/>
       <c r="E58" t="s" s="2">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="F58" t="s" s="2">
         <v>46</v>
@@ -7126,13 +7295,13 @@
         <v>38</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>206</v>
+        <v>107</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>276</v>
+        <v>108</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>277</v>
+        <v>109</v>
       </c>
       <c r="M58" s="2"/>
       <c r="N58" s="2"/>
@@ -7183,10 +7352,10 @@
         <v>38</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>275</v>
+        <v>110</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>46</v>
@@ -7201,23 +7370,23 @@
         <v>38</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>38</v>
+        <v>111</v>
       </c>
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>278</v>
+        <v>308</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
-        <v>38</v>
+        <v>113</v>
       </c>
       <c r="D59" s="2"/>
       <c r="E59" t="s" s="2">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="F59" t="s" s="2">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="G59" t="s" s="2">
         <v>38</v>
@@ -7229,15 +7398,17 @@
         <v>38</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>206</v>
+        <v>90</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>279</v>
+        <v>114</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>280</v>
-      </c>
-      <c r="M59" s="2"/>
+        <v>115</v>
+      </c>
+      <c r="M59" t="s" s="2">
+        <v>116</v>
+      </c>
       <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
         <v>38</v>
@@ -7286,13 +7457,13 @@
         <v>38</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>278</v>
+        <v>118</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="AG59" t="s" s="2">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="AH59" t="s" s="2">
         <v>38</v>
@@ -7304,16 +7475,16 @@
         <v>38</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>38</v>
+        <v>111</v>
       </c>
     </row>
-    <row r="60">
+    <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>281</v>
+        <v>309</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
-        <v>38</v>
+        <v>220</v>
       </c>
       <c r="D60" s="2"/>
       <c r="E60" t="s" s="2">
@@ -7323,25 +7494,29 @@
         <v>40</v>
       </c>
       <c r="G60" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="H60" t="s" s="2">
         <v>47</v>
       </c>
-      <c r="H60" t="s" s="2">
-        <v>38</v>
-      </c>
       <c r="I60" t="s" s="2">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>213</v>
+        <v>90</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>282</v>
+        <v>221</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>283</v>
-      </c>
-      <c r="M60" s="2"/>
-      <c r="N60" s="2"/>
+        <v>222</v>
+      </c>
+      <c r="M60" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="N60" t="s" s="2">
+        <v>137</v>
+      </c>
       <c r="O60" t="s" s="2">
         <v>38</v>
       </c>
@@ -7389,7 +7564,7 @@
         <v>38</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>281</v>
+        <v>223</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>39</v>
@@ -7401,18 +7576,18 @@
         <v>38</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>216</v>
+        <v>38</v>
       </c>
       <c r="AJ60" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>38</v>
+        <v>88</v>
       </c>
     </row>
-    <row r="61" hidden="true">
+    <row r="61">
       <c r="A61" t="s" s="2">
-        <v>284</v>
+        <v>310</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -7426,7 +7601,7 @@
         <v>46</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="H61" t="s" s="2">
         <v>38</v>
@@ -7435,13 +7610,13 @@
         <v>38</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>107</v>
+        <v>206</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>108</v>
+        <v>311</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>109</v>
+        <v>312</v>
       </c>
       <c r="M61" s="2"/>
       <c r="N61" s="2"/>
@@ -7492,7 +7667,7 @@
         <v>38</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>110</v>
+        <v>310</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>39</v>
@@ -7510,16 +7685,16 @@
         <v>38</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>111</v>
+        <v>38</v>
       </c>
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>285</v>
+        <v>313</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
-        <v>113</v>
+        <v>38</v>
       </c>
       <c r="D62" s="2"/>
       <c r="E62" t="s" s="2">
@@ -7538,17 +7713,15 @@
         <v>38</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>90</v>
+        <v>213</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>114</v>
+        <v>314</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>115</v>
-      </c>
-      <c r="M62" t="s" s="2">
-        <v>116</v>
-      </c>
+        <v>315</v>
+      </c>
+      <c r="M62" s="2"/>
       <c r="N62" s="2"/>
       <c r="O62" t="s" s="2">
         <v>38</v>
@@ -7597,7 +7770,7 @@
         <v>38</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>118</v>
+        <v>313</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>39</v>
@@ -7609,54 +7782,50 @@
         <v>38</v>
       </c>
       <c r="AI62" t="s" s="2">
-        <v>38</v>
+        <v>216</v>
       </c>
       <c r="AJ62" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>111</v>
+        <v>38</v>
       </c>
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>286</v>
+        <v>316</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
-        <v>220</v>
+        <v>38</v>
       </c>
       <c r="D63" s="2"/>
       <c r="E63" t="s" s="2">
         <v>39</v>
       </c>
       <c r="F63" t="s" s="2">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="G63" t="s" s="2">
         <v>38</v>
       </c>
       <c r="H63" t="s" s="2">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="I63" t="s" s="2">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>90</v>
+        <v>107</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>221</v>
+        <v>108</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>222</v>
-      </c>
-      <c r="M63" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="N63" t="s" s="2">
-        <v>137</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="M63" s="2"/>
+      <c r="N63" s="2"/>
       <c r="O63" t="s" s="2">
         <v>38</v>
       </c>
@@ -7704,13 +7873,13 @@
         <v>38</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>223</v>
+        <v>110</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AG63" t="s" s="2">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="AH63" t="s" s="2">
         <v>38</v>
@@ -7722,26 +7891,26 @@
         <v>38</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>88</v>
+        <v>111</v>
       </c>
     </row>
-    <row r="64">
+    <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>287</v>
+        <v>317</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
-        <v>38</v>
+        <v>113</v>
       </c>
       <c r="D64" s="2"/>
       <c r="E64" t="s" s="2">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="F64" t="s" s="2">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="G64" t="s" s="2">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="H64" t="s" s="2">
         <v>38</v>
@@ -7750,15 +7919,17 @@
         <v>38</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>206</v>
+        <v>90</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>234</v>
+        <v>114</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>235</v>
-      </c>
-      <c r="M64" s="2"/>
+        <v>115</v>
+      </c>
+      <c r="M64" t="s" s="2">
+        <v>116</v>
+      </c>
       <c r="N64" s="2"/>
       <c r="O64" t="s" s="2">
         <v>38</v>
@@ -7783,13 +7954,13 @@
         <v>38</v>
       </c>
       <c r="W64" t="s" s="2">
-        <v>236</v>
+        <v>38</v>
       </c>
       <c r="X64" t="s" s="2">
-        <v>237</v>
+        <v>38</v>
       </c>
       <c r="Y64" t="s" s="2">
-        <v>238</v>
+        <v>38</v>
       </c>
       <c r="Z64" t="s" s="2">
         <v>38</v>
@@ -7807,13 +7978,13 @@
         <v>38</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>287</v>
+        <v>118</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AG64" t="s" s="2">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="AH64" t="s" s="2">
         <v>38</v>
@@ -7825,44 +7996,48 @@
         <v>38</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>38</v>
+        <v>111</v>
       </c>
     </row>
-    <row r="65">
+    <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>288</v>
+        <v>318</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
-        <v>38</v>
+        <v>220</v>
       </c>
       <c r="D65" s="2"/>
       <c r="E65" t="s" s="2">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="F65" t="s" s="2">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="G65" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="H65" t="s" s="2">
         <v>47</v>
       </c>
-      <c r="H65" t="s" s="2">
-        <v>38</v>
-      </c>
       <c r="I65" t="s" s="2">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>240</v>
+        <v>90</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>241</v>
+        <v>221</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>289</v>
-      </c>
-      <c r="M65" s="2"/>
-      <c r="N65" s="2"/>
+        <v>222</v>
+      </c>
+      <c r="M65" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="N65" t="s" s="2">
+        <v>137</v>
+      </c>
       <c r="O65" t="s" s="2">
         <v>38</v>
       </c>
@@ -7910,13 +8085,13 @@
         <v>38</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>288</v>
+        <v>223</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AG65" t="s" s="2">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="AH65" t="s" s="2">
         <v>38</v>
@@ -7928,12 +8103,12 @@
         <v>38</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>38</v>
+        <v>88</v>
       </c>
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>290</v>
+        <v>319</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -7941,10 +8116,10 @@
       </c>
       <c r="D66" s="2"/>
       <c r="E66" t="s" s="2">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="F66" t="s" s="2">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="G66" t="s" s="2">
         <v>38</v>
@@ -7956,13 +8131,13 @@
         <v>38</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>244</v>
+        <v>206</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>245</v>
+        <v>320</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>291</v>
+        <v>321</v>
       </c>
       <c r="M66" s="2"/>
       <c r="N66" s="2"/>
@@ -8013,10 +8188,10 @@
         <v>38</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>290</v>
+        <v>319</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>46</v>
@@ -8034,9 +8209,9 @@
         <v>38</v>
       </c>
     </row>
-    <row r="67">
+    <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>292</v>
+        <v>322</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -8044,13 +8219,13 @@
       </c>
       <c r="D67" s="2"/>
       <c r="E67" t="s" s="2">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="F67" t="s" s="2">
         <v>46</v>
       </c>
       <c r="G67" t="s" s="2">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="H67" t="s" s="2">
         <v>38</v>
@@ -8059,13 +8234,13 @@
         <v>38</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>248</v>
+        <v>206</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>293</v>
+        <v>323</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>294</v>
+        <v>324</v>
       </c>
       <c r="M67" s="2"/>
       <c r="N67" s="2"/>
@@ -8116,10 +8291,10 @@
         <v>38</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>292</v>
+        <v>322</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>46</v>
@@ -8137,9 +8312,9 @@
         <v>38</v>
       </c>
     </row>
-    <row r="68" hidden="true">
+    <row r="68">
       <c r="A68" t="s" s="2">
-        <v>295</v>
+        <v>325</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -8150,10 +8325,10 @@
         <v>39</v>
       </c>
       <c r="F68" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G68" t="s" s="2">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="H68" t="s" s="2">
         <v>38</v>
@@ -8162,13 +8337,13 @@
         <v>38</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>296</v>
+        <v>213</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>297</v>
+        <v>326</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>298</v>
+        <v>327</v>
       </c>
       <c r="M68" s="2"/>
       <c r="N68" s="2"/>
@@ -8219,7 +8394,7 @@
         <v>38</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>295</v>
+        <v>325</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>39</v>
@@ -8231,17 +8406,1693 @@
         <v>38</v>
       </c>
       <c r="AI68" t="s" s="2">
-        <v>38</v>
+        <v>216</v>
       </c>
       <c r="AJ68" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AK68" t="s" s="2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="69" hidden="true">
+      <c r="A69" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="B69" s="2"/>
+      <c r="C69" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D69" s="2"/>
+      <c r="E69" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="F69" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="G69" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="H69" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I69" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J69" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="K69" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="L69" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="M69" s="2"/>
+      <c r="N69" s="2"/>
+      <c r="O69" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="P69" s="2"/>
+      <c r="Q69" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="R69" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="S69" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T69" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U69" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V69" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W69" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X69" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y69" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z69" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA69" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB69" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC69" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD69" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE69" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="AF69" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AG69" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AH69" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AI69" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ69" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AK69" t="s" s="2">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="70" hidden="true">
+      <c r="A70" t="s" s="2">
+        <v>329</v>
+      </c>
+      <c r="B70" s="2"/>
+      <c r="C70" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="D70" s="2"/>
+      <c r="E70" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="F70" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="G70" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="H70" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I70" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J70" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="K70" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="L70" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="M70" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="N70" s="2"/>
+      <c r="O70" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="P70" s="2"/>
+      <c r="Q70" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="R70" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="S70" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T70" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U70" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V70" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W70" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X70" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y70" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z70" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA70" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB70" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC70" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD70" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE70" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="AF70" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AG70" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AH70" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AI70" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ70" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AK70" t="s" s="2">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="71" hidden="true">
+      <c r="A71" t="s" s="2">
+        <v>330</v>
+      </c>
+      <c r="B71" s="2"/>
+      <c r="C71" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="D71" s="2"/>
+      <c r="E71" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="F71" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="G71" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="H71" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="I71" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="J71" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="K71" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="L71" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="M71" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="N71" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="O71" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="P71" s="2"/>
+      <c r="Q71" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="R71" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="S71" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T71" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U71" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V71" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W71" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X71" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y71" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z71" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA71" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB71" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC71" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD71" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE71" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="AF71" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AG71" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AH71" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AI71" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ71" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AK71" t="s" s="2">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s" s="2">
+        <v>331</v>
+      </c>
+      <c r="B72" s="2"/>
+      <c r="C72" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D72" s="2"/>
+      <c r="E72" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="F72" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="G72" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="H72" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I72" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J72" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="K72" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="L72" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="M72" s="2"/>
+      <c r="N72" s="2"/>
+      <c r="O72" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="P72" s="2"/>
+      <c r="Q72" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="R72" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="S72" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T72" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U72" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V72" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W72" t="s" s="2">
+        <v>236</v>
+      </c>
+      <c r="X72" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="Y72" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="Z72" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA72" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB72" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC72" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD72" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE72" t="s" s="2">
+        <v>331</v>
+      </c>
+      <c r="AF72" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AG72" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AH72" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AI72" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ72" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AK72" t="s" s="2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s" s="2">
+        <v>332</v>
+      </c>
+      <c r="B73" s="2"/>
+      <c r="C73" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D73" s="2"/>
+      <c r="E73" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="F73" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="G73" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="H73" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I73" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J73" t="s" s="2">
+        <v>240</v>
+      </c>
+      <c r="K73" t="s" s="2">
+        <v>241</v>
+      </c>
+      <c r="L73" t="s" s="2">
+        <v>333</v>
+      </c>
+      <c r="M73" s="2"/>
+      <c r="N73" s="2"/>
+      <c r="O73" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="P73" s="2"/>
+      <c r="Q73" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="R73" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="S73" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T73" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U73" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V73" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W73" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X73" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y73" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z73" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA73" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB73" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC73" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD73" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE73" t="s" s="2">
+        <v>332</v>
+      </c>
+      <c r="AF73" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AG73" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AH73" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AI73" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ73" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AK73" t="s" s="2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="74" hidden="true">
+      <c r="A74" t="s" s="2">
+        <v>334</v>
+      </c>
+      <c r="B74" s="2"/>
+      <c r="C74" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D74" s="2"/>
+      <c r="E74" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="F74" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="G74" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="H74" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I74" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J74" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="K74" t="s" s="2">
+        <v>245</v>
+      </c>
+      <c r="L74" t="s" s="2">
+        <v>335</v>
+      </c>
+      <c r="M74" s="2"/>
+      <c r="N74" s="2"/>
+      <c r="O74" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="P74" s="2"/>
+      <c r="Q74" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="R74" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="S74" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T74" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U74" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V74" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W74" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X74" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y74" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z74" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA74" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB74" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC74" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD74" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE74" t="s" s="2">
+        <v>334</v>
+      </c>
+      <c r="AF74" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AG74" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AH74" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AI74" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ74" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AK74" t="s" s="2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="s" s="2">
+        <v>336</v>
+      </c>
+      <c r="B75" s="2"/>
+      <c r="C75" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D75" s="2"/>
+      <c r="E75" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="F75" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="G75" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="H75" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I75" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J75" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="K75" t="s" s="2">
+        <v>337</v>
+      </c>
+      <c r="L75" t="s" s="2">
+        <v>338</v>
+      </c>
+      <c r="M75" s="2"/>
+      <c r="N75" s="2"/>
+      <c r="O75" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="P75" s="2"/>
+      <c r="Q75" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="R75" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="S75" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T75" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U75" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V75" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W75" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X75" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y75" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z75" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA75" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB75" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC75" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD75" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE75" t="s" s="2">
+        <v>336</v>
+      </c>
+      <c r="AF75" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AG75" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AH75" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AI75" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ75" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AK75" t="s" s="2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="76" hidden="true">
+      <c r="A76" t="s" s="2">
+        <v>339</v>
+      </c>
+      <c r="B76" s="2"/>
+      <c r="C76" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D76" s="2"/>
+      <c r="E76" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="F76" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="G76" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="H76" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I76" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J76" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="K76" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="L76" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="M76" s="2"/>
+      <c r="N76" s="2"/>
+      <c r="O76" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="P76" s="2"/>
+      <c r="Q76" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="R76" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="S76" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T76" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U76" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V76" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W76" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X76" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y76" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z76" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA76" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB76" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC76" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD76" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE76" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="AF76" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AG76" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AH76" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AI76" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ76" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AK76" t="s" s="2">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="77" hidden="true">
+      <c r="A77" t="s" s="2">
+        <v>340</v>
+      </c>
+      <c r="B77" s="2"/>
+      <c r="C77" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="D77" s="2"/>
+      <c r="E77" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="F77" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="G77" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="H77" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I77" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J77" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="K77" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="L77" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="M77" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="N77" s="2"/>
+      <c r="O77" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="P77" s="2"/>
+      <c r="Q77" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="R77" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="S77" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T77" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U77" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V77" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W77" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X77" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y77" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z77" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA77" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AB77" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="AC77" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD77" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AE77" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="AF77" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AG77" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AH77" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AI77" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ77" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AK77" t="s" s="2">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="s" s="2">
+        <v>340</v>
+      </c>
+      <c r="B78" t="s" s="2">
+        <v>341</v>
+      </c>
+      <c r="C78" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D78" s="2"/>
+      <c r="E78" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="F78" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="G78" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="H78" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I78" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J78" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="K78" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="L78" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="M78" t="s" s="2">
+        <v>257</v>
+      </c>
+      <c r="N78" s="2"/>
+      <c r="O78" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="P78" s="2"/>
+      <c r="Q78" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="R78" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="S78" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T78" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U78" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V78" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W78" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X78" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y78" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z78" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA78" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB78" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC78" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD78" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE78" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="AF78" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AG78" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AH78" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AI78" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ78" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AK78" t="s" s="2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="79" hidden="true">
+      <c r="A79" t="s" s="2">
+        <v>342</v>
+      </c>
+      <c r="B79" s="2"/>
+      <c r="C79" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D79" s="2"/>
+      <c r="E79" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="F79" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="G79" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="H79" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I79" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="J79" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="K79" t="s" s="2">
+        <v>260</v>
+      </c>
+      <c r="L79" t="s" s="2">
+        <v>261</v>
+      </c>
+      <c r="M79" t="s" s="2">
+        <v>262</v>
+      </c>
+      <c r="N79" t="s" s="2">
+        <v>263</v>
+      </c>
+      <c r="O79" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="P79" s="2"/>
+      <c r="Q79" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="R79" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="S79" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T79" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U79" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V79" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W79" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X79" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y79" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z79" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA79" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB79" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC79" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD79" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE79" t="s" s="2">
+        <v>264</v>
+      </c>
+      <c r="AF79" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AG79" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AH79" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AI79" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ79" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AK79" t="s" s="2">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="80" hidden="true">
+      <c r="A80" t="s" s="2">
+        <v>343</v>
+      </c>
+      <c r="B80" s="2"/>
+      <c r="C80" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D80" s="2"/>
+      <c r="E80" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="F80" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="G80" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="H80" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="I80" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="J80" t="s" s="2">
+        <v>65</v>
+      </c>
+      <c r="K80" t="s" s="2">
+        <v>267</v>
+      </c>
+      <c r="L80" t="s" s="2">
+        <v>268</v>
+      </c>
+      <c r="M80" s="2"/>
+      <c r="N80" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="O80" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="P80" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="Q80" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="R80" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="S80" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T80" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U80" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V80" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W80" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="X80" t="s" s="2">
+        <v>271</v>
+      </c>
+      <c r="Y80" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="Z80" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA80" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB80" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC80" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD80" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE80" t="s" s="2">
+        <v>273</v>
+      </c>
+      <c r="AF80" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AG80" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AH80" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AI80" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ80" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AK80" t="s" s="2">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="81" hidden="true">
+      <c r="A81" t="s" s="2">
+        <v>344</v>
+      </c>
+      <c r="B81" s="2"/>
+      <c r="C81" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D81" s="2"/>
+      <c r="E81" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="F81" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="G81" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="H81" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I81" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="J81" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="K81" t="s" s="2">
+        <v>276</v>
+      </c>
+      <c r="L81" t="s" s="2">
+        <v>277</v>
+      </c>
+      <c r="M81" s="2"/>
+      <c r="N81" t="s" s="2">
+        <v>278</v>
+      </c>
+      <c r="O81" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="P81" s="2"/>
+      <c r="Q81" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="R81" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="S81" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T81" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U81" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V81" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W81" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X81" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y81" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z81" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA81" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB81" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC81" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD81" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE81" t="s" s="2">
+        <v>279</v>
+      </c>
+      <c r="AF81" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AG81" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AH81" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AI81" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ81" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AK81" t="s" s="2">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="82" hidden="true">
+      <c r="A82" t="s" s="2">
+        <v>345</v>
+      </c>
+      <c r="B82" s="2"/>
+      <c r="C82" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D82" s="2"/>
+      <c r="E82" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="F82" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="G82" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="H82" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I82" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="J82" t="s" s="2">
+        <v>59</v>
+      </c>
+      <c r="K82" t="s" s="2">
+        <v>282</v>
+      </c>
+      <c r="L82" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="M82" s="2"/>
+      <c r="N82" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="O82" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="P82" s="2"/>
+      <c r="Q82" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="R82" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="S82" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T82" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U82" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V82" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W82" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X82" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y82" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z82" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA82" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB82" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC82" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD82" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE82" t="s" s="2">
+        <v>285</v>
+      </c>
+      <c r="AF82" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AG82" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AH82" t="s" s="2">
+        <v>286</v>
+      </c>
+      <c r="AI82" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ82" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AK82" t="s" s="2">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="83" hidden="true">
+      <c r="A83" t="s" s="2">
+        <v>346</v>
+      </c>
+      <c r="B83" s="2"/>
+      <c r="C83" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D83" s="2"/>
+      <c r="E83" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="F83" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="G83" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="H83" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I83" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="J83" t="s" s="2">
+        <v>65</v>
+      </c>
+      <c r="K83" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="L83" t="s" s="2">
+        <v>290</v>
+      </c>
+      <c r="M83" t="s" s="2">
+        <v>291</v>
+      </c>
+      <c r="N83" t="s" s="2">
+        <v>292</v>
+      </c>
+      <c r="O83" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="P83" s="2"/>
+      <c r="Q83" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="R83" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="S83" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T83" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U83" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V83" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W83" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X83" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y83" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z83" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA83" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB83" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC83" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD83" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE83" t="s" s="2">
+        <v>293</v>
+      </c>
+      <c r="AF83" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AG83" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AH83" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AI83" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ83" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AK83" t="s" s="2">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="84" hidden="true">
+      <c r="A84" t="s" s="2">
+        <v>347</v>
+      </c>
+      <c r="B84" s="2"/>
+      <c r="C84" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D84" s="2"/>
+      <c r="E84" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="F84" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="G84" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="H84" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I84" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J84" t="s" s="2">
+        <v>348</v>
+      </c>
+      <c r="K84" t="s" s="2">
+        <v>349</v>
+      </c>
+      <c r="L84" t="s" s="2">
+        <v>350</v>
+      </c>
+      <c r="M84" s="2"/>
+      <c r="N84" s="2"/>
+      <c r="O84" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="P84" s="2"/>
+      <c r="Q84" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="R84" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="S84" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T84" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U84" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V84" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W84" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X84" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y84" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z84" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA84" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB84" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC84" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD84" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE84" t="s" s="2">
+        <v>347</v>
+      </c>
+      <c r="AF84" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AG84" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AH84" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AI84" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ84" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AK84" t="s" s="2">
         <v>38</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AK68">
+  <autoFilter ref="A1:AK84">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -8251,7 +10102,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI67">
+  <conditionalFormatting sqref="A2:AI83">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/docs/summary-measurereport-deqm.xlsx
+++ b/docs/summary-measurereport-deqm.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AK$84</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AK$91</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2754" uniqueCount="351">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2984" uniqueCount="380">
   <si>
     <t>Path</t>
   </si>
@@ -147,7 +147,7 @@
   </si>
   <si>
     <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-6:A resource should have narrative for robust management {text.div.exists()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}mrp-2:Stratifiers SHALL be either a single criteria or a set of criteria components {group.stratifier.stratum.all(value.exists() xor component.exists())}mrp-1:Measure Reports used for data collection SHALL NOT communicate group and score information {(type != 'data-collection') or group.exists().not()}</t>
+dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}mrp-1:Measure Reports used for data collection SHALL NOT communicate group and score information {(type != 'data-collection') or group.exists().not()}mrp-2:Stratifiers SHALL be either a single criteria or a set of criteria components {group.stratifier.stratum.all(value.exists() xor component.exists())}</t>
   </si>
   <si>
     <t>Entity. Role, or Act</t>
@@ -162,7 +162,7 @@
     <t>Y</t>
   </si>
   <si>
-    <t xml:space="preserve">id
+    <t xml:space="preserve">string
 </t>
   </si>
   <si>
@@ -194,6 +194,10 @@
     <t>Resource.meta</t>
   </si>
   <si>
+    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+</t>
+  </si>
+  <si>
     <t>MeasureReport.implicitRules</t>
   </si>
   <si>
@@ -316,6 +320,10 @@
     <t>DomainResource.extension</t>
   </si>
   <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+  </si>
+  <si>
     <t>vendor</t>
   </si>
   <si>
@@ -333,10 +341,6 @@
 </t>
   </si>
   <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
-  </si>
-  <si>
     <t>cehrt</t>
   </si>
   <si>
@@ -351,10 +355,6 @@
   </si>
   <si>
     <t>MeasureReport.extension.id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">string
-</t>
   </si>
   <si>
     <t>Unique id for inter-element referencing</t>
@@ -516,7 +516,7 @@
     <t>The type of the measure report.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/measure-report-type|4.0.0</t>
+    <t>http://hl7.org/fhir/ValueSet/measure-report-type|4.0.1</t>
   </si>
   <si>
     <t xml:space="preserve">mrp-1
@@ -593,6 +593,105 @@
     <t>FiveWs.source</t>
   </si>
   <si>
+    <t>MeasureReport.reporter.id</t>
+  </si>
+  <si>
+    <t>MeasureReport.reporter.extension</t>
+  </si>
+  <si>
+    <t>group</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/davinci-deqm/StructureDefinition/extension-reporterGroup}
+</t>
+  </si>
+  <si>
+    <t>Group of practitioners responsible for a report</t>
+  </si>
+  <si>
+    <t>Group of practitioners responsible for a report. This extension is used to provide the capability to allow the participating practitioners to be documented.</t>
+  </si>
+  <si>
+    <t>MeasureReport.reporter.reference</t>
+  </si>
+  <si>
+    <t>Literal reference, Relative, internal or absolute URL</t>
+  </si>
+  <si>
+    <t>A reference to a location at which the other resource is found. The reference may be a relative reference, in which case it is relative to the service base URL, or an absolute URL that resolves to the location where the resource is found. The reference may be version specific or not. If the reference is not to a FHIR RESTful server, then it should be assumed to be version specific. Internal fragment references (start with '#') refer to contained resources.</t>
+  </si>
+  <si>
+    <t>Using absolute URLs provides a stable scalable approach suitable for a cloud/web context, while using relative/logical references provides a flexible approach suitable for use when trading across closed eco-system boundaries.   Absolute URLs do not need to point to a FHIR RESTful server, though this is the preferred approach. If the URL conforms to the structure "/[type]/[id]" then it should be assumed that the reference is to a FHIR RESTful server.</t>
+  </si>
+  <si>
+    <t>Reference.reference</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ref-1
+</t>
+  </si>
+  <si>
+    <t>MeasureReport.reporter.type</t>
+  </si>
+  <si>
+    <t>Type the reference refers to (e.g. "Patient")</t>
+  </si>
+  <si>
+    <t>The expected type of the target of the reference. If both Reference.type and Reference.reference are populated and Reference.reference is a FHIR URL, both SHALL be consistent.
+The type is the Canonical URL of Resource Definition that is the type this reference refers to. References are URLs that are relative to http://hl7.org/fhir/StructureDefinition/ e.g. "Patient" is a reference to http://hl7.org/fhir/StructureDefinition/Patient. Absolute URLs are only allowed for logical models (and can only be used in references in logical models, not resources).</t>
+  </si>
+  <si>
+    <t>This element is used to indicate the type of  the target of the reference. This may be used which ever of the other elements are populated (or not). In some cases, the type of the target may be determined by inspection of the reference (e.g. a RESTful URL) or by resolving the target of the reference; if both the type and a reference is provided, the reference SHALL resolve to a resource of the same type as that specified.</t>
+  </si>
+  <si>
+    <t>extensible</t>
+  </si>
+  <si>
+    <t>Aa resource (or, for logical models, the URI of the logical model).</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/resource-types</t>
+  </si>
+  <si>
+    <t>Reference.type</t>
+  </si>
+  <si>
+    <t>MeasureReport.reporter.identifier</t>
+  </si>
+  <si>
+    <t>Logical reference, when literal reference is not known</t>
+  </si>
+  <si>
+    <t>An identifier for the target resource. This is used when there is no way to reference the other resource directly, either because the entity it represents is not available through a FHIR server, or because there is no way for the author of the resource to convert a known identifier to an actual location. There is no requirement that a Reference.identifier point to something that is actually exposed as a FHIR instance, but it SHALL point to a business concept that would be expected to be exposed as a FHIR instance, and that instance would need to be of a FHIR resource type allowed by the reference.</t>
+  </si>
+  <si>
+    <t>When an identifier is provided in place of a reference, any system processing the reference will only be able to resolve the identifier to a reference if it understands the business context in which the identifier is used. Sometimes this is global (e.g. a national identifier) but often it is not. For this reason, none of the useful mechanisms described for working with references (e.g. chaining, includes) are possible, nor should servers be expected to be able resolve the reference. Servers may accept an identifier based reference untouched, resolve it, and/or reject it - see CapabilityStatement.rest.resource.referencePolicy. 
+When both an identifier and a literal reference are provided, the literal reference is preferred. Applications processing the resource are allowed - but not required - to check that the identifier matches the literal reference
+Applications converting a logical reference to a literal reference may choose to leave the logical reference present, or remove it.
+Reference is intended to point to a structure that can potentially be expressed as a FHIR resource, though there is no need for it to exist as an actual FHIR resource instance - except in as much as an application wishes to actual find the target of the reference. The content referred to be the identifier must meet the logical constraints implied by any limitations on what resource types are permitted for the reference.  For example, it would not be legitimate to send the identifier for a drug prescription if the type were Reference(Observation|DiagnosticReport).  One of the use-cases for Reference.identifier is the situation where no FHIR representation exists (where the type is Reference (Any).</t>
+  </si>
+  <si>
+    <t>Reference.identifier</t>
+  </si>
+  <si>
+    <t>.identifier</t>
+  </si>
+  <si>
+    <t>MeasureReport.reporter.display</t>
+  </si>
+  <si>
+    <t>Text alternative for the resource</t>
+  </si>
+  <si>
+    <t>Plain text narrative that identifies the resource in addition to the resource reference.</t>
+  </si>
+  <si>
+    <t>This is generally not the same as the Resource.text of the referenced resource.  The purpose is to identify what's being referenced, not to fully describe it.</t>
+  </si>
+  <si>
+    <t>Reference.display</t>
+  </si>
+  <si>
     <t>MeasureReport.period</t>
   </si>
   <si>
@@ -610,8 +709,8 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">deqm-1:Date precision SHALL  be at least to day ( YYYY-MM-DD ) {start.matches('^([0-9]{4})(-)(1[0-2]|0[1-9])-(3[01]|0[1-9]|[12][0-9])') and end.matches('^([0-9]{4})(-)(1[0-2]|0[1-9])-(3[01]|0[1-9]|[12][0-9])')}
-</t>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+deqm-1:Date precision SHALL  be at least to day ( YYYY-MM-DD ) {start.matches('^([0-9]{4})(-)(1[0-2]|0[1-9])-(3[01]|0[1-9]|[12][0-9])') and end.matches('^([0-9]{4})(-)(1[0-2]|0[1-9])-(3[01]|0[1-9]|[12][0-9])')}</t>
   </si>
   <si>
     <t>MeasureReport.period.id</t>
@@ -682,7 +781,7 @@
     <t>Observation values that indicate what change in a measurement value or score is indicative of an improvement in the measured item or scored issue.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/measure-improvement-notation|4.0.0</t>
+    <t>http://hl7.org/fhir/ValueSet/measure-improvement-notation|4.0.1</t>
   </si>
   <si>
     <t>MeasureReport.group</t>
@@ -698,10 +797,6 @@
     <t>The results of the calculation, one for each population group in the measure.</t>
   </si>
   <si>
-    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-</t>
-  </si>
-  <si>
     <t>MeasureReport.group.id</t>
   </si>
   <si>
@@ -761,9 +856,6 @@
     <t>The type of the population.</t>
   </si>
   <si>
-    <t>extensible</t>
-  </si>
-  <si>
     <t>The type of population (e.g. initial, numerator, denominator, etc.).</t>
   </si>
   <si>
@@ -874,7 +966,7 @@
     <t>How the Quantity should be understood and represented.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/quantity-comparator|4.0.0</t>
+    <t>http://hl7.org/fhir/ValueSet/quantity-comparator|4.0.1</t>
   </si>
   <si>
     <t>Quantity.comparator</t>
@@ -1259,7 +1351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AK84"/>
+  <dimension ref="A1:AK91"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1722,7 +1814,7 @@
         <v>38</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="AJ4" t="s" s="2">
         <v>38</v>
@@ -1733,7 +1825,7 @@
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
@@ -1756,16 +1848,16 @@
         <v>47</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" t="s" s="2">
@@ -1815,7 +1907,7 @@
         <v>38</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AF5" t="s" s="2">
         <v>39</v>
@@ -1827,7 +1919,7 @@
         <v>38</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="AJ5" t="s" s="2">
         <v>38</v>
@@ -1838,7 +1930,7 @@
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
@@ -1861,16 +1953,16 @@
         <v>38</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" t="s" s="2">
@@ -1896,13 +1988,13 @@
         <v>38</v>
       </c>
       <c r="W6" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Z6" t="s" s="2">
         <v>38</v>
@@ -1920,7 +2012,7 @@
         <v>38</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AF6" t="s" s="2">
         <v>39</v>
@@ -1932,7 +2024,7 @@
         <v>38</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="AJ6" t="s" s="2">
         <v>38</v>
@@ -1943,11 +2035,11 @@
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" t="s" s="2">
@@ -1966,16 +2058,16 @@
         <v>38</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="N7" s="2"/>
       <c r="O7" t="s" s="2">
@@ -2025,7 +2117,7 @@
         <v>38</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AF7" t="s" s="2">
         <v>39</v>
@@ -2037,22 +2129,22 @@
         <v>38</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="AJ7" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AK7" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" t="s" s="2">
@@ -2071,16 +2163,16 @@
         <v>38</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" t="s" s="2">
@@ -2130,7 +2222,7 @@
         <v>38</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AF8" t="s" s="2">
         <v>39</v>
@@ -2148,12 +2240,12 @@
         <v>38</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
@@ -2176,13 +2268,13 @@
         <v>38</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
@@ -2221,17 +2313,17 @@
         <v>38</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AB9" s="2"/>
       <c r="AC9" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AD9" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>39</v>
@@ -2243,7 +2335,7 @@
         <v>38</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>38</v>
+        <v>97</v>
       </c>
       <c r="AJ9" t="s" s="2">
         <v>38</v>
@@ -2254,10 +2346,10 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C10" t="s" s="2">
         <v>38</v>
@@ -2279,13 +2371,13 @@
         <v>38</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
@@ -2336,7 +2428,7 @@
         <v>38</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AF10" t="s" s="2">
         <v>39</v>
@@ -2345,10 +2437,10 @@
         <v>40</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="AJ10" t="s" s="2">
         <v>38</v>
@@ -2359,10 +2451,10 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C11" t="s" s="2">
         <v>38</v>
@@ -2384,13 +2476,13 @@
         <v>38</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
@@ -2441,7 +2533,7 @@
         <v>38</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>39</v>
@@ -2450,10 +2542,10 @@
         <v>40</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="AJ11" t="s" s="2">
         <v>38</v>
@@ -2464,7 +2556,7 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
@@ -2487,7 +2579,7 @@
         <v>38</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>107</v>
+        <v>48</v>
       </c>
       <c r="K12" t="s" s="2">
         <v>108</v>
@@ -2590,7 +2682,7 @@
         <v>38</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K13" t="s" s="2">
         <v>114</v>
@@ -2637,7 +2729,7 @@
         <v>38</v>
       </c>
       <c r="AA13" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AB13" t="s" s="2">
         <v>117</v>
@@ -2646,7 +2738,7 @@
         <v>38</v>
       </c>
       <c r="AD13" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AE13" t="s" s="2">
         <v>118</v>
@@ -2661,7 +2753,7 @@
         <v>38</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>38</v>
+        <v>97</v>
       </c>
       <c r="AJ13" t="s" s="2">
         <v>38</v>
@@ -2695,7 +2787,7 @@
         <v>38</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K14" t="s" s="2">
         <v>120</v>
@@ -2772,7 +2864,7 @@
         <v>38</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="15" hidden="true">
@@ -2867,13 +2959,13 @@
         <v>38</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="AJ15" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="16" hidden="true">
@@ -2972,13 +3064,13 @@
         <v>38</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="AJ16" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="17" hidden="true">
@@ -3006,7 +3098,7 @@
         <v>38</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K17" t="s" s="2">
         <v>135</v>
@@ -3079,13 +3171,13 @@
         <v>38</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>38</v>
+        <v>97</v>
       </c>
       <c r="AJ17" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="18" hidden="true">
@@ -3186,7 +3278,7 @@
         <v>38</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="AJ18" t="s" s="2">
         <v>144</v>
@@ -3220,7 +3312,7 @@
         <v>47</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="K19" t="s" s="2">
         <v>146</v>
@@ -3289,7 +3381,7 @@
         <v>38</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="AJ19" t="s" s="2">
         <v>151</v>
@@ -3323,7 +3415,7 @@
         <v>47</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="K20" t="s" s="2">
         <v>153</v>
@@ -3396,7 +3488,7 @@
         <v>160</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="AJ20" t="s" s="2">
         <v>161</v>
@@ -3501,7 +3593,7 @@
         <v>38</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="AJ21" t="s" s="2">
         <v>167</v>
@@ -3606,7 +3698,7 @@
         <v>38</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="AJ22" t="s" s="2">
         <v>172</v>
@@ -3709,7 +3801,7 @@
         <v>38</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="AJ23" t="s" s="2">
         <v>177</v>
@@ -3812,7 +3904,7 @@
         <v>38</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="AJ24" t="s" s="2">
         <v>182</v>
@@ -3821,7 +3913,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
         <v>183</v>
       </c>
@@ -3831,28 +3923,28 @@
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="F25" t="s" s="2">
         <v>46</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>38</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>184</v>
+        <v>48</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>185</v>
+        <v>108</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>186</v>
+        <v>109</v>
       </c>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
@@ -3903,41 +3995,41 @@
         <v>38</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>183</v>
+        <v>110</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>46</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>187</v>
+        <v>38</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>188</v>
+        <v>38</v>
       </c>
       <c r="AJ25" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>38</v>
+        <v>111</v>
       </c>
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
-        <v>38</v>
+        <v>113</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
         <v>39</v>
       </c>
       <c r="F26" t="s" s="2">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="G26" t="s" s="2">
         <v>38</v>
@@ -3949,15 +4041,17 @@
         <v>38</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>107</v>
+        <v>91</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="M26" s="2"/>
+        <v>115</v>
+      </c>
+      <c r="M26" t="s" s="2">
+        <v>116</v>
+      </c>
       <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
         <v>38</v>
@@ -3994,31 +4088,31 @@
         <v>38</v>
       </c>
       <c r="AA26" t="s" s="2">
-        <v>38</v>
+        <v>94</v>
       </c>
       <c r="AB26" t="s" s="2">
-        <v>38</v>
+        <v>117</v>
       </c>
       <c r="AC26" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AD26" t="s" s="2">
-        <v>38</v>
+        <v>95</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="AH26" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>38</v>
+        <v>97</v>
       </c>
       <c r="AJ26" t="s" s="2">
         <v>38</v>
@@ -4027,23 +4121,25 @@
         <v>111</v>
       </c>
     </row>
-    <row r="27" hidden="true">
+    <row r="27">
       <c r="A27" t="s" s="2">
-        <v>190</v>
-      </c>
-      <c r="B27" s="2"/>
+        <v>184</v>
+      </c>
+      <c r="B27" t="s" s="2">
+        <v>185</v>
+      </c>
       <c r="C27" t="s" s="2">
-        <v>113</v>
+        <v>38</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
         <v>39</v>
       </c>
       <c r="F27" t="s" s="2">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>38</v>
@@ -4052,17 +4148,15 @@
         <v>38</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>90</v>
+        <v>186</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>114</v>
+        <v>187</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>115</v>
-      </c>
-      <c r="M27" t="s" s="2">
-        <v>116</v>
-      </c>
+        <v>188</v>
+      </c>
+      <c r="M27" s="2"/>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
         <v>38</v>
@@ -4099,16 +4193,16 @@
         <v>38</v>
       </c>
       <c r="AA27" t="s" s="2">
-        <v>93</v>
+        <v>38</v>
       </c>
       <c r="AB27" t="s" s="2">
-        <v>117</v>
+        <v>38</v>
       </c>
       <c r="AC27" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AD27" t="s" s="2">
-        <v>94</v>
+        <v>38</v>
       </c>
       <c r="AE27" t="s" s="2">
         <v>118</v>
@@ -4123,18 +4217,18 @@
         <v>38</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>38</v>
+        <v>97</v>
       </c>
       <c r="AJ27" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>111</v>
+        <v>38</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4142,13 +4236,13 @@
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="F28" t="s" s="2">
         <v>46</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>38</v>
@@ -4157,16 +4251,16 @@
         <v>47</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>174</v>
+        <v>48</v>
       </c>
       <c r="K28" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="L28" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="M28" t="s" s="2">
         <v>192</v>
-      </c>
-      <c r="L28" t="s" s="2">
-        <v>193</v>
-      </c>
-      <c r="M28" t="s" s="2">
-        <v>194</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
@@ -4216,30 +4310,30 @@
         <v>38</v>
       </c>
       <c r="AE28" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="AF28" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AG28" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AH28" t="s" s="2">
+        <v>194</v>
+      </c>
+      <c r="AI28" t="s" s="2">
+        <v>58</v>
+      </c>
+      <c r="AJ28" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AK28" t="s" s="2">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="29" hidden="true">
+      <c r="A29" t="s" s="2">
         <v>195</v>
-      </c>
-      <c r="AF28" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AG28" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AH28" t="s" s="2">
-        <v>196</v>
-      </c>
-      <c r="AI28" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ28" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AK28" t="s" s="2">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="s" s="2">
-        <v>198</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4247,13 +4341,13 @@
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="F29" t="s" s="2">
         <v>46</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>38</v>
@@ -4262,69 +4356,67 @@
         <v>47</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>174</v>
+        <v>60</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
         <v>38</v>
       </c>
-      <c r="P29" t="s" s="2">
+      <c r="P29" s="2"/>
+      <c r="Q29" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="R29" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="S29" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T29" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U29" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V29" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W29" t="s" s="2">
+        <v>199</v>
+      </c>
+      <c r="X29" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="Y29" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="Z29" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA29" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB29" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC29" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD29" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE29" t="s" s="2">
         <v>202</v>
       </c>
-      <c r="Q29" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="R29" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="S29" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="T29" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="U29" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="V29" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="W29" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="X29" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Y29" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Z29" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AA29" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB29" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC29" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AD29" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE29" t="s" s="2">
-        <v>203</v>
-      </c>
       <c r="AF29" t="s" s="2">
         <v>39</v>
       </c>
@@ -4332,21 +4424,21 @@
         <v>46</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>196</v>
+        <v>38</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="AJ29" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>204</v>
+        <v>89</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -4363,22 +4455,22 @@
         <v>38</v>
       </c>
       <c r="H30" t="s" s="2">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="I30" t="s" s="2">
         <v>47</v>
       </c>
       <c r="J30" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="K30" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="L30" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="M30" t="s" s="2">
         <v>206</v>
-      </c>
-      <c r="K30" t="s" s="2">
-        <v>207</v>
-      </c>
-      <c r="L30" t="s" s="2">
-        <v>208</v>
-      </c>
-      <c r="M30" t="s" s="2">
-        <v>209</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
@@ -4404,13 +4496,13 @@
         <v>38</v>
       </c>
       <c r="W30" t="s" s="2">
-        <v>149</v>
+        <v>38</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>210</v>
+        <v>38</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>211</v>
+        <v>38</v>
       </c>
       <c r="Z30" t="s" s="2">
         <v>38</v>
@@ -4428,7 +4520,7 @@
         <v>38</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>39</v>
@@ -4440,18 +4532,18 @@
         <v>38</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="AJ30" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>38</v>
+        <v>208</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -4459,30 +4551,32 @@
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="F31" t="s" s="2">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="G31" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="H31" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I31" t="s" s="2">
         <v>47</v>
       </c>
-      <c r="H31" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I31" t="s" s="2">
-        <v>38</v>
-      </c>
       <c r="J31" t="s" s="2">
-        <v>213</v>
+        <v>48</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>215</v>
-      </c>
-      <c r="M31" s="2"/>
+        <v>211</v>
+      </c>
+      <c r="M31" t="s" s="2">
+        <v>212</v>
+      </c>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
         <v>38</v>
@@ -4531,30 +4625,30 @@
         <v>38</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>160</v>
+        <v>38</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>216</v>
+        <v>58</v>
       </c>
       <c r="AJ31" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>38</v>
+        <v>89</v>
       </c>
     </row>
-    <row r="32" hidden="true">
+    <row r="32">
       <c r="A32" t="s" s="2">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -4562,28 +4656,28 @@
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="F32" t="s" s="2">
         <v>46</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>38</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>107</v>
+        <v>215</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>108</v>
+        <v>216</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>109</v>
+        <v>217</v>
       </c>
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
@@ -4634,41 +4728,41 @@
         <v>38</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>110</v>
+        <v>214</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>46</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>38</v>
+        <v>218</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>38</v>
+        <v>219</v>
       </c>
       <c r="AJ32" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>111</v>
+        <v>38</v>
       </c>
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
-        <v>113</v>
+        <v>38</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
         <v>39</v>
       </c>
       <c r="F33" t="s" s="2">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="G33" t="s" s="2">
         <v>38</v>
@@ -4680,17 +4774,15 @@
         <v>38</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>90</v>
+        <v>48</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>115</v>
-      </c>
-      <c r="M33" t="s" s="2">
-        <v>116</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="M33" s="2"/>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
         <v>38</v>
@@ -4739,13 +4831,13 @@
         <v>38</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="AH33" t="s" s="2">
         <v>38</v>
@@ -4762,11 +4854,11 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
-        <v>220</v>
+        <v>113</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
@@ -4779,26 +4871,24 @@
         <v>38</v>
       </c>
       <c r="H34" t="s" s="2">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>221</v>
+        <v>114</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>222</v>
+        <v>115</v>
       </c>
       <c r="M34" t="s" s="2">
         <v>116</v>
       </c>
-      <c r="N34" t="s" s="2">
-        <v>137</v>
-      </c>
+      <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
         <v>38</v>
       </c>
@@ -4834,19 +4924,19 @@
         <v>38</v>
       </c>
       <c r="AA34" t="s" s="2">
-        <v>38</v>
+        <v>94</v>
       </c>
       <c r="AB34" t="s" s="2">
-        <v>38</v>
+        <v>117</v>
       </c>
       <c r="AC34" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AD34" t="s" s="2">
-        <v>38</v>
+        <v>95</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>223</v>
+        <v>118</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>39</v>
@@ -4858,18 +4948,18 @@
         <v>38</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>38</v>
+        <v>97</v>
       </c>
       <c r="AJ34" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>88</v>
+        <v>111</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -4877,7 +4967,7 @@
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="F35" t="s" s="2">
         <v>46</v>
@@ -4892,15 +4982,17 @@
         <v>47</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>206</v>
+        <v>174</v>
       </c>
       <c r="K35" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="L35" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="M35" t="s" s="2">
         <v>225</v>
       </c>
-      <c r="L35" t="s" s="2">
-        <v>226</v>
-      </c>
-      <c r="M35" s="2"/>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
         <v>38</v>
@@ -4949,7 +5041,7 @@
         <v>38</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>39</v>
@@ -4958,21 +5050,21 @@
         <v>46</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>38</v>
+        <v>227</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="AJ35" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>38</v>
+        <v>228</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -4983,7 +5075,7 @@
         <v>46</v>
       </c>
       <c r="F36" t="s" s="2">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="G36" t="s" s="2">
         <v>47</v>
@@ -4992,23 +5084,27 @@
         <v>38</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>213</v>
+        <v>174</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>229</v>
-      </c>
-      <c r="M36" s="2"/>
+        <v>231</v>
+      </c>
+      <c r="M36" t="s" s="2">
+        <v>232</v>
+      </c>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
         <v>38</v>
       </c>
-      <c r="P36" s="2"/>
+      <c r="P36" t="s" s="2">
+        <v>233</v>
+      </c>
       <c r="Q36" t="s" s="2">
         <v>38</v>
       </c>
@@ -5052,30 +5148,30 @@
         <v>38</v>
       </c>
       <c r="AE36" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="AF36" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AG36" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AH36" t="s" s="2">
         <v>227</v>
       </c>
-      <c r="AF36" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AG36" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AH36" t="s" s="2">
-        <v>38</v>
-      </c>
       <c r="AI36" t="s" s="2">
-        <v>216</v>
+        <v>58</v>
       </c>
       <c r="AJ36" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>38</v>
+        <v>235</v>
       </c>
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5092,21 +5188,23 @@
         <v>38</v>
       </c>
       <c r="H37" t="s" s="2">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>107</v>
+        <v>237</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>108</v>
+        <v>238</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="M37" s="2"/>
+        <v>239</v>
+      </c>
+      <c r="M37" t="s" s="2">
+        <v>240</v>
+      </c>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
         <v>38</v>
@@ -5131,13 +5229,13 @@
         <v>38</v>
       </c>
       <c r="W37" t="s" s="2">
-        <v>38</v>
+        <v>149</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>38</v>
+        <v>241</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>38</v>
+        <v>242</v>
       </c>
       <c r="Z37" t="s" s="2">
         <v>38</v>
@@ -5155,7 +5253,7 @@
         <v>38</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>110</v>
+        <v>236</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>39</v>
@@ -5167,32 +5265,32 @@
         <v>38</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="AJ37" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>111</v>
+        <v>38</v>
       </c>
     </row>
-    <row r="38" hidden="true">
+    <row r="38">
       <c r="A38" t="s" s="2">
-        <v>231</v>
+        <v>243</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
-        <v>113</v>
+        <v>38</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="F38" t="s" s="2">
         <v>40</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>38</v>
@@ -5201,17 +5299,15 @@
         <v>38</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>90</v>
+        <v>244</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>114</v>
+        <v>245</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>115</v>
-      </c>
-      <c r="M38" t="s" s="2">
-        <v>116</v>
-      </c>
+        <v>246</v>
+      </c>
+      <c r="M38" s="2"/>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
         <v>38</v>
@@ -5260,7 +5356,7 @@
         <v>38</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>118</v>
+        <v>243</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>39</v>
@@ -5269,57 +5365,53 @@
         <v>40</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>38</v>
+        <v>160</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="AJ38" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>111</v>
+        <v>38</v>
       </c>
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>232</v>
+        <v>247</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
-        <v>220</v>
+        <v>38</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
         <v>39</v>
       </c>
       <c r="F39" t="s" s="2">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="G39" t="s" s="2">
         <v>38</v>
       </c>
       <c r="H39" t="s" s="2">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>90</v>
+        <v>48</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>221</v>
+        <v>108</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>222</v>
-      </c>
-      <c r="M39" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="N39" t="s" s="2">
-        <v>137</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="M39" s="2"/>
+      <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
         <v>38</v>
       </c>
@@ -5367,13 +5459,13 @@
         <v>38</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>223</v>
+        <v>110</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="AH39" t="s" s="2">
         <v>38</v>
@@ -5385,43 +5477,45 @@
         <v>38</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>88</v>
+        <v>111</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>233</v>
+        <v>248</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
-        <v>38</v>
+        <v>113</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="F40" t="s" s="2">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>38</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>206</v>
+        <v>91</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>234</v>
+        <v>114</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>235</v>
-      </c>
-      <c r="M40" s="2"/>
+        <v>115</v>
+      </c>
+      <c r="M40" t="s" s="2">
+        <v>116</v>
+      </c>
       <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
         <v>38</v>
@@ -5446,13 +5540,13 @@
         <v>38</v>
       </c>
       <c r="W40" t="s" s="2">
-        <v>236</v>
+        <v>38</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>237</v>
+        <v>38</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>238</v>
+        <v>38</v>
       </c>
       <c r="Z40" t="s" s="2">
         <v>38</v>
@@ -5470,62 +5564,66 @@
         <v>38</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>233</v>
+        <v>118</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="AH40" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>38</v>
+        <v>97</v>
       </c>
       <c r="AJ40" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>38</v>
+        <v>111</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>239</v>
+        <v>249</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
-        <v>38</v>
+        <v>250</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="F41" t="s" s="2">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="G41" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="H41" t="s" s="2">
         <v>47</v>
       </c>
-      <c r="H41" t="s" s="2">
-        <v>38</v>
-      </c>
       <c r="I41" t="s" s="2">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>240</v>
+        <v>91</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>241</v>
+        <v>251</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>242</v>
-      </c>
-      <c r="M41" s="2"/>
-      <c r="N41" s="2"/>
+        <v>252</v>
+      </c>
+      <c r="M41" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="N41" t="s" s="2">
+        <v>137</v>
+      </c>
       <c r="O41" t="s" s="2">
         <v>38</v>
       </c>
@@ -5573,30 +5671,30 @@
         <v>38</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>239</v>
+        <v>253</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="AH41" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>38</v>
+        <v>97</v>
       </c>
       <c r="AJ41" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>38</v>
+        <v>89</v>
       </c>
     </row>
-    <row r="42" hidden="true">
+    <row r="42">
       <c r="A42" t="s" s="2">
-        <v>243</v>
+        <v>254</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -5607,25 +5705,25 @@
         <v>39</v>
       </c>
       <c r="F42" t="s" s="2">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>38</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>245</v>
+        <v>255</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>246</v>
+        <v>256</v>
       </c>
       <c r="M42" s="2"/>
       <c r="N42" s="2"/>
@@ -5676,7 +5774,7 @@
         <v>38</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>243</v>
+        <v>254</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>39</v>
@@ -5688,7 +5786,7 @@
         <v>38</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="AJ42" t="s" s="2">
         <v>38</v>
@@ -5699,7 +5797,7 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>247</v>
+        <v>257</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -5710,7 +5808,7 @@
         <v>46</v>
       </c>
       <c r="F43" t="s" s="2">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="G43" t="s" s="2">
         <v>47</v>
@@ -5719,16 +5817,16 @@
         <v>38</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>249</v>
+        <v>258</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>250</v>
+        <v>259</v>
       </c>
       <c r="M43" s="2"/>
       <c r="N43" s="2"/>
@@ -5779,19 +5877,19 @@
         <v>38</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>247</v>
+        <v>257</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="AH43" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="AJ43" t="s" s="2">
         <v>38</v>
@@ -5802,7 +5900,7 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>251</v>
+        <v>260</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -5825,7 +5923,7 @@
         <v>38</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>107</v>
+        <v>48</v>
       </c>
       <c r="K44" t="s" s="2">
         <v>108</v>
@@ -5905,7 +6003,7 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>252</v>
+        <v>261</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -5928,7 +6026,7 @@
         <v>38</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K45" t="s" s="2">
         <v>114</v>
@@ -5975,16 +6073,16 @@
         <v>38</v>
       </c>
       <c r="AA45" t="s" s="2">
-        <v>93</v>
+        <v>38</v>
       </c>
       <c r="AB45" t="s" s="2">
-        <v>117</v>
+        <v>38</v>
       </c>
       <c r="AC45" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AD45" t="s" s="2">
-        <v>94</v>
+        <v>38</v>
       </c>
       <c r="AE45" t="s" s="2">
         <v>118</v>
@@ -5999,7 +6097,7 @@
         <v>38</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>38</v>
+        <v>97</v>
       </c>
       <c r="AJ45" t="s" s="2">
         <v>38</v>
@@ -6008,45 +6106,45 @@
         <v>111</v>
       </c>
     </row>
-    <row r="46">
+    <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>252</v>
-      </c>
-      <c r="B46" t="s" s="2">
-        <v>253</v>
-      </c>
+        <v>262</v>
+      </c>
+      <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
-        <v>38</v>
+        <v>250</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
         <v>39</v>
       </c>
       <c r="F46" t="s" s="2">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="G46" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="H46" t="s" s="2">
         <v>47</v>
       </c>
-      <c r="H46" t="s" s="2">
-        <v>38</v>
-      </c>
       <c r="I46" t="s" s="2">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>254</v>
+        <v>91</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>257</v>
-      </c>
-      <c r="N46" s="2"/>
+        <v>116</v>
+      </c>
+      <c r="N46" t="s" s="2">
+        <v>137</v>
+      </c>
       <c r="O46" t="s" s="2">
         <v>38</v>
       </c>
@@ -6094,7 +6192,7 @@
         <v>38</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>118</v>
+        <v>253</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>39</v>
@@ -6106,18 +6204,18 @@
         <v>38</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>38</v>
+        <v>97</v>
       </c>
       <c r="AJ46" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>38</v>
+        <v>89</v>
       </c>
     </row>
-    <row r="47" hidden="true">
+    <row r="47">
       <c r="A47" t="s" s="2">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -6125,13 +6223,13 @@
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="F47" t="s" s="2">
         <v>46</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>38</v>
@@ -6140,20 +6238,16 @@
         <v>47</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>259</v>
+        <v>237</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>261</v>
-      </c>
-      <c r="M47" t="s" s="2">
-        <v>262</v>
-      </c>
-      <c r="N47" t="s" s="2">
-        <v>263</v>
-      </c>
+        <v>265</v>
+      </c>
+      <c r="M47" s="2"/>
+      <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
         <v>38</v>
       </c>
@@ -6177,13 +6271,13 @@
         <v>38</v>
       </c>
       <c r="W47" t="s" s="2">
-        <v>38</v>
+        <v>199</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>38</v>
+        <v>266</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>38</v>
+        <v>267</v>
       </c>
       <c r="Z47" t="s" s="2">
         <v>38</v>
@@ -6201,7 +6295,7 @@
         <v>38</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>39</v>
@@ -6213,18 +6307,18 @@
         <v>38</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="AJ47" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>265</v>
+        <v>38</v>
       </c>
     </row>
-    <row r="48" hidden="true">
+    <row r="48">
       <c r="A48" t="s" s="2">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -6232,84 +6326,80 @@
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="F48" t="s" s="2">
         <v>46</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="H48" t="s" s="2">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="I48" t="s" s="2">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>65</v>
+        <v>269</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="L48" t="s" s="2">
+        <v>271</v>
+      </c>
+      <c r="M48" s="2"/>
+      <c r="N48" s="2"/>
+      <c r="O48" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="P48" s="2"/>
+      <c r="Q48" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="R48" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="S48" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T48" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U48" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V48" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W48" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X48" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y48" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z48" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA48" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB48" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC48" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD48" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE48" t="s" s="2">
         <v>268</v>
       </c>
-      <c r="M48" s="2"/>
-      <c r="N48" t="s" s="2">
-        <v>269</v>
-      </c>
-      <c r="O48" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="P48" t="s" s="2">
-        <v>270</v>
-      </c>
-      <c r="Q48" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="R48" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="S48" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="T48" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="U48" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="V48" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="W48" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="X48" t="s" s="2">
-        <v>271</v>
-      </c>
-      <c r="Y48" t="s" s="2">
-        <v>272</v>
-      </c>
-      <c r="Z48" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AA48" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB48" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC48" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AD48" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE48" t="s" s="2">
-        <v>273</v>
-      </c>
       <c r="AF48" t="s" s="2">
         <v>39</v>
       </c>
@@ -6320,18 +6410,18 @@
         <v>38</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="AJ48" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>274</v>
+        <v>38</v>
       </c>
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -6342,7 +6432,7 @@
         <v>39</v>
       </c>
       <c r="F49" t="s" s="2">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="G49" t="s" s="2">
         <v>38</v>
@@ -6351,21 +6441,19 @@
         <v>38</v>
       </c>
       <c r="I49" t="s" s="2">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>107</v>
+        <v>273</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="M49" s="2"/>
-      <c r="N49" t="s" s="2">
-        <v>278</v>
-      </c>
+      <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
         <v>38</v>
       </c>
@@ -6413,7 +6501,7 @@
         <v>38</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>39</v>
@@ -6425,18 +6513,18 @@
         <v>38</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="AJ49" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>280</v>
+        <v>38</v>
       </c>
     </row>
-    <row r="50" hidden="true">
+    <row r="50">
       <c r="A50" t="s" s="2">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -6444,13 +6532,13 @@
       </c>
       <c r="D50" s="2"/>
       <c r="E50" t="s" s="2">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="F50" t="s" s="2">
         <v>46</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>38</v>
@@ -6459,18 +6547,16 @@
         <v>47</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>59</v>
+        <v>277</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="M50" s="2"/>
-      <c r="N50" t="s" s="2">
-        <v>284</v>
-      </c>
+      <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
         <v>38</v>
       </c>
@@ -6518,7 +6604,7 @@
         <v>38</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>285</v>
+        <v>276</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>39</v>
@@ -6527,21 +6613,21 @@
         <v>46</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>286</v>
+        <v>38</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="AJ50" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>287</v>
+        <v>38</v>
       </c>
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>288</v>
+        <v>280</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -6561,23 +6647,19 @@
         <v>38</v>
       </c>
       <c r="I51" t="s" s="2">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>65</v>
+        <v>48</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>289</v>
+        <v>108</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>290</v>
-      </c>
-      <c r="M51" t="s" s="2">
-        <v>291</v>
-      </c>
-      <c r="N51" t="s" s="2">
-        <v>292</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="M51" s="2"/>
+      <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
         <v>38</v>
       </c>
@@ -6625,7 +6707,7 @@
         <v>38</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>293</v>
+        <v>110</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>39</v>
@@ -6643,16 +6725,16 @@
         <v>38</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>294</v>
+        <v>111</v>
       </c>
     </row>
-    <row r="52">
+    <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>295</v>
+        <v>281</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
-        <v>38</v>
+        <v>113</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" t="s" s="2">
@@ -6662,7 +6744,7 @@
         <v>40</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>38</v>
@@ -6671,15 +6753,17 @@
         <v>38</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>213</v>
+        <v>91</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>296</v>
+        <v>114</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>297</v>
-      </c>
-      <c r="M52" s="2"/>
+        <v>115</v>
+      </c>
+      <c r="M52" t="s" s="2">
+        <v>116</v>
+      </c>
       <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
         <v>38</v>
@@ -6716,19 +6800,19 @@
         <v>38</v>
       </c>
       <c r="AA52" t="s" s="2">
-        <v>38</v>
+        <v>94</v>
       </c>
       <c r="AB52" t="s" s="2">
-        <v>38</v>
+        <v>117</v>
       </c>
       <c r="AC52" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AD52" t="s" s="2">
-        <v>38</v>
+        <v>95</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>295</v>
+        <v>118</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>39</v>
@@ -6740,20 +6824,22 @@
         <v>38</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>216</v>
+        <v>97</v>
       </c>
       <c r="AJ52" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>38</v>
+        <v>111</v>
       </c>
     </row>
-    <row r="53" hidden="true">
+    <row r="53">
       <c r="A53" t="s" s="2">
-        <v>298</v>
-      </c>
-      <c r="B53" s="2"/>
+        <v>281</v>
+      </c>
+      <c r="B53" t="s" s="2">
+        <v>282</v>
+      </c>
       <c r="C53" t="s" s="2">
         <v>38</v>
       </c>
@@ -6765,7 +6851,7 @@
         <v>46</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="H53" t="s" s="2">
         <v>38</v>
@@ -6774,15 +6860,17 @@
         <v>38</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>107</v>
+        <v>283</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>108</v>
+        <v>284</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="M53" s="2"/>
+        <v>285</v>
+      </c>
+      <c r="M53" t="s" s="2">
+        <v>286</v>
+      </c>
       <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
         <v>38</v>
@@ -6831,41 +6919,41 @@
         <v>38</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="AH53" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>38</v>
+        <v>97</v>
       </c>
       <c r="AJ53" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>111</v>
+        <v>38</v>
       </c>
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>299</v>
+        <v>287</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
-        <v>113</v>
+        <v>38</v>
       </c>
       <c r="D54" s="2"/>
       <c r="E54" t="s" s="2">
         <v>39</v>
       </c>
       <c r="F54" t="s" s="2">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="G54" t="s" s="2">
         <v>38</v>
@@ -6874,21 +6962,23 @@
         <v>38</v>
       </c>
       <c r="I54" t="s" s="2">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>90</v>
+        <v>288</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>114</v>
+        <v>289</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>115</v>
+        <v>290</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="N54" s="2"/>
+        <v>291</v>
+      </c>
+      <c r="N54" t="s" s="2">
+        <v>292</v>
+      </c>
       <c r="O54" t="s" s="2">
         <v>38</v>
       </c>
@@ -6936,41 +7026,41 @@
         <v>38</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>118</v>
+        <v>293</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="AH54" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="AJ54" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>111</v>
+        <v>294</v>
       </c>
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
-        <v>220</v>
+        <v>38</v>
       </c>
       <c r="D55" s="2"/>
       <c r="E55" t="s" s="2">
         <v>39</v>
       </c>
       <c r="F55" t="s" s="2">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="G55" t="s" s="2">
         <v>38</v>
@@ -6982,24 +7072,24 @@
         <v>47</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>90</v>
+        <v>66</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>221</v>
+        <v>296</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>222</v>
-      </c>
-      <c r="M55" t="s" s="2">
-        <v>116</v>
-      </c>
+        <v>297</v>
+      </c>
+      <c r="M55" s="2"/>
       <c r="N55" t="s" s="2">
-        <v>137</v>
+        <v>298</v>
       </c>
       <c r="O55" t="s" s="2">
         <v>38</v>
       </c>
-      <c r="P55" s="2"/>
+      <c r="P55" t="s" s="2">
+        <v>299</v>
+      </c>
       <c r="Q55" t="s" s="2">
         <v>38</v>
       </c>
@@ -7019,13 +7109,13 @@
         <v>38</v>
       </c>
       <c r="W55" t="s" s="2">
-        <v>38</v>
+        <v>149</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>38</v>
+        <v>300</v>
       </c>
       <c r="Y55" t="s" s="2">
-        <v>38</v>
+        <v>301</v>
       </c>
       <c r="Z55" t="s" s="2">
         <v>38</v>
@@ -7043,30 +7133,30 @@
         <v>38</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>223</v>
+        <v>302</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AG55" t="s" s="2">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="AH55" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="AJ55" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>88</v>
+        <v>303</v>
       </c>
     </row>
-    <row r="56">
+    <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -7074,31 +7164,33 @@
       </c>
       <c r="D56" s="2"/>
       <c r="E56" t="s" s="2">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="F56" t="s" s="2">
         <v>46</v>
       </c>
       <c r="G56" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="H56" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I56" t="s" s="2">
         <v>47</v>
       </c>
-      <c r="H56" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I56" t="s" s="2">
-        <v>38</v>
-      </c>
       <c r="J56" t="s" s="2">
-        <v>206</v>
+        <v>48</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="M56" s="2"/>
-      <c r="N56" s="2"/>
+      <c r="N56" t="s" s="2">
+        <v>307</v>
+      </c>
       <c r="O56" t="s" s="2">
         <v>38</v>
       </c>
@@ -7146,30 +7238,30 @@
         <v>38</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>301</v>
+        <v>308</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AG56" t="s" s="2">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="AH56" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="AJ56" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>38</v>
+        <v>309</v>
       </c>
     </row>
-    <row r="57">
+    <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>304</v>
+        <v>310</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -7180,28 +7272,30 @@
         <v>39</v>
       </c>
       <c r="F57" t="s" s="2">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="G57" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="H57" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I57" t="s" s="2">
         <v>47</v>
       </c>
-      <c r="H57" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I57" t="s" s="2">
-        <v>38</v>
-      </c>
       <c r="J57" t="s" s="2">
-        <v>213</v>
+        <v>60</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>305</v>
+        <v>311</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c r="M57" s="2"/>
-      <c r="N57" s="2"/>
+      <c r="N57" t="s" s="2">
+        <v>313</v>
+      </c>
       <c r="O57" t="s" s="2">
         <v>38</v>
       </c>
@@ -7249,30 +7343,30 @@
         <v>38</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>304</v>
+        <v>314</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AG57" t="s" s="2">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>38</v>
+        <v>315</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>216</v>
+        <v>58</v>
       </c>
       <c r="AJ57" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>38</v>
+        <v>316</v>
       </c>
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>307</v>
+        <v>317</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -7292,19 +7386,23 @@
         <v>38</v>
       </c>
       <c r="I58" t="s" s="2">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>107</v>
+        <v>66</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>108</v>
+        <v>318</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="M58" s="2"/>
-      <c r="N58" s="2"/>
+        <v>319</v>
+      </c>
+      <c r="M58" t="s" s="2">
+        <v>320</v>
+      </c>
+      <c r="N58" t="s" s="2">
+        <v>321</v>
+      </c>
       <c r="O58" t="s" s="2">
         <v>38</v>
       </c>
@@ -7352,7 +7450,7 @@
         <v>38</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>110</v>
+        <v>322</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>39</v>
@@ -7364,22 +7462,22 @@
         <v>38</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="AJ58" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>111</v>
+        <v>323</v>
       </c>
     </row>
-    <row r="59" hidden="true">
+    <row r="59">
       <c r="A59" t="s" s="2">
-        <v>308</v>
+        <v>324</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
-        <v>113</v>
+        <v>38</v>
       </c>
       <c r="D59" s="2"/>
       <c r="E59" t="s" s="2">
@@ -7389,7 +7487,7 @@
         <v>40</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="H59" t="s" s="2">
         <v>38</v>
@@ -7398,17 +7496,15 @@
         <v>38</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>90</v>
+        <v>244</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>114</v>
+        <v>325</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>115</v>
-      </c>
-      <c r="M59" t="s" s="2">
-        <v>116</v>
-      </c>
+        <v>326</v>
+      </c>
+      <c r="M59" s="2"/>
       <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
         <v>38</v>
@@ -7457,7 +7553,7 @@
         <v>38</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>118</v>
+        <v>324</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>39</v>
@@ -7469,54 +7565,50 @@
         <v>38</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="AJ59" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>111</v>
+        <v>38</v>
       </c>
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>309</v>
+        <v>327</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
-        <v>220</v>
+        <v>38</v>
       </c>
       <c r="D60" s="2"/>
       <c r="E60" t="s" s="2">
         <v>39</v>
       </c>
       <c r="F60" t="s" s="2">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="G60" t="s" s="2">
         <v>38</v>
       </c>
       <c r="H60" t="s" s="2">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="I60" t="s" s="2">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>90</v>
+        <v>48</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>221</v>
+        <v>108</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>222</v>
-      </c>
-      <c r="M60" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="N60" t="s" s="2">
-        <v>137</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="M60" s="2"/>
+      <c r="N60" s="2"/>
       <c r="O60" t="s" s="2">
         <v>38</v>
       </c>
@@ -7564,13 +7656,13 @@
         <v>38</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>223</v>
+        <v>110</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AG60" t="s" s="2">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="AH60" t="s" s="2">
         <v>38</v>
@@ -7582,26 +7674,26 @@
         <v>38</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>88</v>
+        <v>111</v>
       </c>
     </row>
-    <row r="61">
+    <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>310</v>
+        <v>328</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
-        <v>38</v>
+        <v>113</v>
       </c>
       <c r="D61" s="2"/>
       <c r="E61" t="s" s="2">
         <v>39</v>
       </c>
       <c r="F61" t="s" s="2">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="H61" t="s" s="2">
         <v>38</v>
@@ -7610,15 +7702,17 @@
         <v>38</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>206</v>
+        <v>91</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>311</v>
+        <v>114</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>312</v>
-      </c>
-      <c r="M61" s="2"/>
+        <v>115</v>
+      </c>
+      <c r="M61" t="s" s="2">
+        <v>116</v>
+      </c>
       <c r="N61" s="2"/>
       <c r="O61" t="s" s="2">
         <v>38</v>
@@ -7667,34 +7761,34 @@
         <v>38</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>310</v>
+        <v>118</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AG61" t="s" s="2">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="AH61" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AI61" t="s" s="2">
-        <v>38</v>
+        <v>97</v>
       </c>
       <c r="AJ61" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>38</v>
+        <v>111</v>
       </c>
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>313</v>
+        <v>329</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
-        <v>38</v>
+        <v>250</v>
       </c>
       <c r="D62" s="2"/>
       <c r="E62" t="s" s="2">
@@ -7707,22 +7801,26 @@
         <v>38</v>
       </c>
       <c r="H62" t="s" s="2">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="I62" t="s" s="2">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>213</v>
+        <v>91</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>314</v>
+        <v>251</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>315</v>
-      </c>
-      <c r="M62" s="2"/>
-      <c r="N62" s="2"/>
+        <v>252</v>
+      </c>
+      <c r="M62" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="N62" t="s" s="2">
+        <v>137</v>
+      </c>
       <c r="O62" t="s" s="2">
         <v>38</v>
       </c>
@@ -7770,7 +7868,7 @@
         <v>38</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>313</v>
+        <v>253</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>39</v>
@@ -7782,18 +7880,18 @@
         <v>38</v>
       </c>
       <c r="AI62" t="s" s="2">
-        <v>216</v>
+        <v>97</v>
       </c>
       <c r="AJ62" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>38</v>
+        <v>89</v>
       </c>
     </row>
-    <row r="63" hidden="true">
+    <row r="63">
       <c r="A63" t="s" s="2">
-        <v>316</v>
+        <v>330</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -7801,13 +7899,13 @@
       </c>
       <c r="D63" s="2"/>
       <c r="E63" t="s" s="2">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="F63" t="s" s="2">
         <v>46</v>
       </c>
       <c r="G63" t="s" s="2">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="H63" t="s" s="2">
         <v>38</v>
@@ -7816,13 +7914,13 @@
         <v>38</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>107</v>
+        <v>237</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>108</v>
+        <v>331</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>109</v>
+        <v>332</v>
       </c>
       <c r="M63" s="2"/>
       <c r="N63" s="2"/>
@@ -7873,34 +7971,34 @@
         <v>38</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>110</v>
+        <v>330</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AG63" t="s" s="2">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="AH63" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AI63" t="s" s="2">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="AJ63" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>111</v>
+        <v>38</v>
       </c>
     </row>
-    <row r="64" hidden="true">
+    <row r="64">
       <c r="A64" t="s" s="2">
-        <v>317</v>
+        <v>333</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
-        <v>113</v>
+        <v>38</v>
       </c>
       <c r="D64" s="2"/>
       <c r="E64" t="s" s="2">
@@ -7910,7 +8008,7 @@
         <v>40</v>
       </c>
       <c r="G64" t="s" s="2">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="H64" t="s" s="2">
         <v>38</v>
@@ -7919,17 +8017,15 @@
         <v>38</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>90</v>
+        <v>244</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>114</v>
+        <v>334</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>115</v>
-      </c>
-      <c r="M64" t="s" s="2">
-        <v>116</v>
-      </c>
+        <v>335</v>
+      </c>
+      <c r="M64" s="2"/>
       <c r="N64" s="2"/>
       <c r="O64" t="s" s="2">
         <v>38</v>
@@ -7978,7 +8074,7 @@
         <v>38</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>118</v>
+        <v>333</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>39</v>
@@ -7990,54 +8086,50 @@
         <v>38</v>
       </c>
       <c r="AI64" t="s" s="2">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="AJ64" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>111</v>
+        <v>38</v>
       </c>
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>318</v>
+        <v>336</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
-        <v>220</v>
+        <v>38</v>
       </c>
       <c r="D65" s="2"/>
       <c r="E65" t="s" s="2">
         <v>39</v>
       </c>
       <c r="F65" t="s" s="2">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="G65" t="s" s="2">
         <v>38</v>
       </c>
       <c r="H65" t="s" s="2">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="I65" t="s" s="2">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>90</v>
+        <v>48</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>221</v>
+        <v>108</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>222</v>
-      </c>
-      <c r="M65" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="N65" t="s" s="2">
-        <v>137</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="M65" s="2"/>
+      <c r="N65" s="2"/>
       <c r="O65" t="s" s="2">
         <v>38</v>
       </c>
@@ -8085,13 +8177,13 @@
         <v>38</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>223</v>
+        <v>110</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AG65" t="s" s="2">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="AH65" t="s" s="2">
         <v>38</v>
@@ -8103,23 +8195,23 @@
         <v>38</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>88</v>
+        <v>111</v>
       </c>
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>319</v>
+        <v>337</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
-        <v>38</v>
+        <v>113</v>
       </c>
       <c r="D66" s="2"/>
       <c r="E66" t="s" s="2">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="F66" t="s" s="2">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="G66" t="s" s="2">
         <v>38</v>
@@ -8131,15 +8223,17 @@
         <v>38</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>206</v>
+        <v>91</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>320</v>
+        <v>114</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>321</v>
-      </c>
-      <c r="M66" s="2"/>
+        <v>115</v>
+      </c>
+      <c r="M66" t="s" s="2">
+        <v>116</v>
+      </c>
       <c r="N66" s="2"/>
       <c r="O66" t="s" s="2">
         <v>38</v>
@@ -8188,62 +8282,66 @@
         <v>38</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>319</v>
+        <v>118</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="AG66" t="s" s="2">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="AH66" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AI66" t="s" s="2">
-        <v>38</v>
+        <v>97</v>
       </c>
       <c r="AJ66" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>38</v>
+        <v>111</v>
       </c>
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>322</v>
+        <v>338</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
-        <v>38</v>
+        <v>250</v>
       </c>
       <c r="D67" s="2"/>
       <c r="E67" t="s" s="2">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="F67" t="s" s="2">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="G67" t="s" s="2">
         <v>38</v>
       </c>
       <c r="H67" t="s" s="2">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="I67" t="s" s="2">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>206</v>
+        <v>91</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>323</v>
+        <v>251</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>324</v>
-      </c>
-      <c r="M67" s="2"/>
-      <c r="N67" s="2"/>
+        <v>252</v>
+      </c>
+      <c r="M67" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="N67" t="s" s="2">
+        <v>137</v>
+      </c>
       <c r="O67" t="s" s="2">
         <v>38</v>
       </c>
@@ -8291,30 +8389,30 @@
         <v>38</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>322</v>
+        <v>253</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="AG67" t="s" s="2">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="AH67" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AI67" t="s" s="2">
-        <v>38</v>
+        <v>97</v>
       </c>
       <c r="AJ67" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>38</v>
+        <v>89</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>325</v>
+        <v>339</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -8325,7 +8423,7 @@
         <v>39</v>
       </c>
       <c r="F68" t="s" s="2">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="G68" t="s" s="2">
         <v>47</v>
@@ -8337,13 +8435,13 @@
         <v>38</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>213</v>
+        <v>237</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>326</v>
+        <v>340</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>327</v>
+        <v>341</v>
       </c>
       <c r="M68" s="2"/>
       <c r="N68" s="2"/>
@@ -8394,19 +8492,19 @@
         <v>38</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>325</v>
+        <v>339</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AG68" t="s" s="2">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="AH68" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AI68" t="s" s="2">
-        <v>216</v>
+        <v>58</v>
       </c>
       <c r="AJ68" t="s" s="2">
         <v>38</v>
@@ -8417,7 +8515,7 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>328</v>
+        <v>342</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -8428,7 +8526,7 @@
         <v>39</v>
       </c>
       <c r="F69" t="s" s="2">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="G69" t="s" s="2">
         <v>38</v>
@@ -8440,13 +8538,13 @@
         <v>38</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>107</v>
+        <v>244</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>108</v>
+        <v>343</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>109</v>
+        <v>344</v>
       </c>
       <c r="M69" s="2"/>
       <c r="N69" s="2"/>
@@ -8497,41 +8595,41 @@
         <v>38</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>110</v>
+        <v>342</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AG69" t="s" s="2">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="AH69" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AI69" t="s" s="2">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="AJ69" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>111</v>
+        <v>38</v>
       </c>
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>329</v>
+        <v>345</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
-        <v>113</v>
+        <v>38</v>
       </c>
       <c r="D70" s="2"/>
       <c r="E70" t="s" s="2">
         <v>39</v>
       </c>
       <c r="F70" t="s" s="2">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="G70" t="s" s="2">
         <v>38</v>
@@ -8543,17 +8641,15 @@
         <v>38</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>90</v>
+        <v>48</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>115</v>
-      </c>
-      <c r="M70" t="s" s="2">
-        <v>116</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="M70" s="2"/>
       <c r="N70" s="2"/>
       <c r="O70" t="s" s="2">
         <v>38</v>
@@ -8602,13 +8698,13 @@
         <v>38</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AG70" t="s" s="2">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="AH70" t="s" s="2">
         <v>38</v>
@@ -8625,11 +8721,11 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>330</v>
+        <v>346</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
-        <v>220</v>
+        <v>113</v>
       </c>
       <c r="D71" s="2"/>
       <c r="E71" t="s" s="2">
@@ -8642,26 +8738,24 @@
         <v>38</v>
       </c>
       <c r="H71" t="s" s="2">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="I71" t="s" s="2">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>221</v>
+        <v>114</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>222</v>
+        <v>115</v>
       </c>
       <c r="M71" t="s" s="2">
         <v>116</v>
       </c>
-      <c r="N71" t="s" s="2">
-        <v>137</v>
-      </c>
+      <c r="N71" s="2"/>
       <c r="O71" t="s" s="2">
         <v>38</v>
       </c>
@@ -8709,7 +8803,7 @@
         <v>38</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>223</v>
+        <v>118</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>39</v>
@@ -8721,50 +8815,54 @@
         <v>38</v>
       </c>
       <c r="AI71" t="s" s="2">
-        <v>38</v>
+        <v>97</v>
       </c>
       <c r="AJ71" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>88</v>
+        <v>111</v>
       </c>
     </row>
-    <row r="72">
+    <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>331</v>
+        <v>347</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
-        <v>38</v>
+        <v>250</v>
       </c>
       <c r="D72" s="2"/>
       <c r="E72" t="s" s="2">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="F72" t="s" s="2">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="G72" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="H72" t="s" s="2">
         <v>47</v>
       </c>
-      <c r="H72" t="s" s="2">
-        <v>38</v>
-      </c>
       <c r="I72" t="s" s="2">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>206</v>
+        <v>91</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>234</v>
+        <v>251</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>235</v>
-      </c>
-      <c r="M72" s="2"/>
-      <c r="N72" s="2"/>
+        <v>252</v>
+      </c>
+      <c r="M72" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="N72" t="s" s="2">
+        <v>137</v>
+      </c>
       <c r="O72" t="s" s="2">
         <v>38</v>
       </c>
@@ -8788,13 +8886,13 @@
         <v>38</v>
       </c>
       <c r="W72" t="s" s="2">
-        <v>236</v>
+        <v>38</v>
       </c>
       <c r="X72" t="s" s="2">
-        <v>237</v>
+        <v>38</v>
       </c>
       <c r="Y72" t="s" s="2">
-        <v>238</v>
+        <v>38</v>
       </c>
       <c r="Z72" t="s" s="2">
         <v>38</v>
@@ -8812,30 +8910,30 @@
         <v>38</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>331</v>
+        <v>253</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AG72" t="s" s="2">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="AH72" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AI72" t="s" s="2">
-        <v>38</v>
+        <v>97</v>
       </c>
       <c r="AJ72" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>38</v>
+        <v>89</v>
       </c>
     </row>
-    <row r="73">
+    <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>332</v>
+        <v>348</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -8849,7 +8947,7 @@
         <v>46</v>
       </c>
       <c r="G73" t="s" s="2">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="H73" t="s" s="2">
         <v>38</v>
@@ -8858,13 +8956,13 @@
         <v>38</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>241</v>
+        <v>349</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>333</v>
+        <v>350</v>
       </c>
       <c r="M73" s="2"/>
       <c r="N73" s="2"/>
@@ -8915,10 +9013,10 @@
         <v>38</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>332</v>
+        <v>348</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>46</v>
@@ -8927,7 +9025,7 @@
         <v>38</v>
       </c>
       <c r="AI73" t="s" s="2">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="AJ73" t="s" s="2">
         <v>38</v>
@@ -8938,7 +9036,7 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>334</v>
+        <v>351</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
@@ -8946,10 +9044,10 @@
       </c>
       <c r="D74" s="2"/>
       <c r="E74" t="s" s="2">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="F74" t="s" s="2">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="G74" t="s" s="2">
         <v>38</v>
@@ -8961,13 +9059,13 @@
         <v>38</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>245</v>
+        <v>352</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>335</v>
+        <v>353</v>
       </c>
       <c r="M74" s="2"/>
       <c r="N74" s="2"/>
@@ -9018,10 +9116,10 @@
         <v>38</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>334</v>
+        <v>351</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>46</v>
@@ -9030,7 +9128,7 @@
         <v>38</v>
       </c>
       <c r="AI74" t="s" s="2">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="AJ74" t="s" s="2">
         <v>38</v>
@@ -9041,7 +9139,7 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>336</v>
+        <v>354</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
@@ -9052,7 +9150,7 @@
         <v>39</v>
       </c>
       <c r="F75" t="s" s="2">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="G75" t="s" s="2">
         <v>47</v>
@@ -9064,13 +9162,13 @@
         <v>38</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>337</v>
+        <v>355</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>338</v>
+        <v>356</v>
       </c>
       <c r="M75" s="2"/>
       <c r="N75" s="2"/>
@@ -9121,19 +9219,19 @@
         <v>38</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>336</v>
+        <v>354</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AG75" t="s" s="2">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="AH75" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AI75" t="s" s="2">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="AJ75" t="s" s="2">
         <v>38</v>
@@ -9144,7 +9242,7 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>339</v>
+        <v>357</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
@@ -9167,7 +9265,7 @@
         <v>38</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>107</v>
+        <v>48</v>
       </c>
       <c r="K76" t="s" s="2">
         <v>108</v>
@@ -9247,7 +9345,7 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>340</v>
+        <v>358</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
@@ -9270,7 +9368,7 @@
         <v>38</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K77" t="s" s="2">
         <v>114</v>
@@ -9317,16 +9415,16 @@
         <v>38</v>
       </c>
       <c r="AA77" t="s" s="2">
-        <v>93</v>
+        <v>38</v>
       </c>
       <c r="AB77" t="s" s="2">
-        <v>117</v>
+        <v>38</v>
       </c>
       <c r="AC77" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AD77" t="s" s="2">
-        <v>94</v>
+        <v>38</v>
       </c>
       <c r="AE77" t="s" s="2">
         <v>118</v>
@@ -9341,7 +9439,7 @@
         <v>38</v>
       </c>
       <c r="AI77" t="s" s="2">
-        <v>38</v>
+        <v>97</v>
       </c>
       <c r="AJ77" t="s" s="2">
         <v>38</v>
@@ -9350,45 +9448,45 @@
         <v>111</v>
       </c>
     </row>
-    <row r="78">
+    <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>340</v>
-      </c>
-      <c r="B78" t="s" s="2">
-        <v>341</v>
-      </c>
+        <v>359</v>
+      </c>
+      <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
-        <v>38</v>
+        <v>250</v>
       </c>
       <c r="D78" s="2"/>
       <c r="E78" t="s" s="2">
         <v>39</v>
       </c>
       <c r="F78" t="s" s="2">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="G78" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="H78" t="s" s="2">
         <v>47</v>
       </c>
-      <c r="H78" t="s" s="2">
-        <v>38</v>
-      </c>
       <c r="I78" t="s" s="2">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>254</v>
+        <v>91</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>257</v>
-      </c>
-      <c r="N78" s="2"/>
+        <v>116</v>
+      </c>
+      <c r="N78" t="s" s="2">
+        <v>137</v>
+      </c>
       <c r="O78" t="s" s="2">
         <v>38</v>
       </c>
@@ -9436,7 +9534,7 @@
         <v>38</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>118</v>
+        <v>253</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>39</v>
@@ -9448,18 +9546,18 @@
         <v>38</v>
       </c>
       <c r="AI78" t="s" s="2">
-        <v>38</v>
+        <v>97</v>
       </c>
       <c r="AJ78" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AK78" t="s" s="2">
-        <v>38</v>
+        <v>89</v>
       </c>
     </row>
-    <row r="79" hidden="true">
+    <row r="79">
       <c r="A79" t="s" s="2">
-        <v>342</v>
+        <v>360</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
@@ -9467,35 +9565,31 @@
       </c>
       <c r="D79" s="2"/>
       <c r="E79" t="s" s="2">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="F79" t="s" s="2">
         <v>46</v>
       </c>
       <c r="G79" t="s" s="2">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="H79" t="s" s="2">
         <v>38</v>
       </c>
       <c r="I79" t="s" s="2">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>259</v>
+        <v>237</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>261</v>
-      </c>
-      <c r="M79" t="s" s="2">
-        <v>262</v>
-      </c>
-      <c r="N79" t="s" s="2">
-        <v>263</v>
-      </c>
+        <v>265</v>
+      </c>
+      <c r="M79" s="2"/>
+      <c r="N79" s="2"/>
       <c r="O79" t="s" s="2">
         <v>38</v>
       </c>
@@ -9519,13 +9613,13 @@
         <v>38</v>
       </c>
       <c r="W79" t="s" s="2">
-        <v>38</v>
+        <v>199</v>
       </c>
       <c r="X79" t="s" s="2">
-        <v>38</v>
+        <v>266</v>
       </c>
       <c r="Y79" t="s" s="2">
-        <v>38</v>
+        <v>267</v>
       </c>
       <c r="Z79" t="s" s="2">
         <v>38</v>
@@ -9543,7 +9637,7 @@
         <v>38</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>264</v>
+        <v>360</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>39</v>
@@ -9555,18 +9649,18 @@
         <v>38</v>
       </c>
       <c r="AI79" t="s" s="2">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="AJ79" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AK79" t="s" s="2">
-        <v>265</v>
+        <v>38</v>
       </c>
     </row>
-    <row r="80" hidden="true">
+    <row r="80">
       <c r="A80" t="s" s="2">
-        <v>343</v>
+        <v>361</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
@@ -9574,39 +9668,35 @@
       </c>
       <c r="D80" s="2"/>
       <c r="E80" t="s" s="2">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="F80" t="s" s="2">
         <v>46</v>
       </c>
       <c r="G80" t="s" s="2">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="H80" t="s" s="2">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="I80" t="s" s="2">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>65</v>
+        <v>269</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>268</v>
+        <v>362</v>
       </c>
       <c r="M80" s="2"/>
-      <c r="N80" t="s" s="2">
-        <v>269</v>
-      </c>
+      <c r="N80" s="2"/>
       <c r="O80" t="s" s="2">
         <v>38</v>
       </c>
-      <c r="P80" t="s" s="2">
-        <v>270</v>
-      </c>
+      <c r="P80" s="2"/>
       <c r="Q80" t="s" s="2">
         <v>38</v>
       </c>
@@ -9626,13 +9716,13 @@
         <v>38</v>
       </c>
       <c r="W80" t="s" s="2">
-        <v>149</v>
+        <v>38</v>
       </c>
       <c r="X80" t="s" s="2">
-        <v>271</v>
+        <v>38</v>
       </c>
       <c r="Y80" t="s" s="2">
-        <v>272</v>
+        <v>38</v>
       </c>
       <c r="Z80" t="s" s="2">
         <v>38</v>
@@ -9650,7 +9740,7 @@
         <v>38</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>273</v>
+        <v>361</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>39</v>
@@ -9662,18 +9752,18 @@
         <v>38</v>
       </c>
       <c r="AI80" t="s" s="2">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="AJ80" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AK80" t="s" s="2">
-        <v>274</v>
+        <v>38</v>
       </c>
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>344</v>
+        <v>363</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
@@ -9684,7 +9774,7 @@
         <v>39</v>
       </c>
       <c r="F81" t="s" s="2">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="G81" t="s" s="2">
         <v>38</v>
@@ -9693,21 +9783,19 @@
         <v>38</v>
       </c>
       <c r="I81" t="s" s="2">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>107</v>
+        <v>273</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>277</v>
+        <v>364</v>
       </c>
       <c r="M81" s="2"/>
-      <c r="N81" t="s" s="2">
-        <v>278</v>
-      </c>
+      <c r="N81" s="2"/>
       <c r="O81" t="s" s="2">
         <v>38</v>
       </c>
@@ -9755,7 +9843,7 @@
         <v>38</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>279</v>
+        <v>363</v>
       </c>
       <c r="AF81" t="s" s="2">
         <v>39</v>
@@ -9767,18 +9855,18 @@
         <v>38</v>
       </c>
       <c r="AI81" t="s" s="2">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="AJ81" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AK81" t="s" s="2">
-        <v>280</v>
+        <v>38</v>
       </c>
     </row>
-    <row r="82" hidden="true">
+    <row r="82">
       <c r="A82" t="s" s="2">
-        <v>345</v>
+        <v>365</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
@@ -9792,27 +9880,25 @@
         <v>46</v>
       </c>
       <c r="G82" t="s" s="2">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="H82" t="s" s="2">
         <v>38</v>
       </c>
       <c r="I82" t="s" s="2">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>59</v>
+        <v>277</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>282</v>
+        <v>366</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>283</v>
+        <v>367</v>
       </c>
       <c r="M82" s="2"/>
-      <c r="N82" t="s" s="2">
-        <v>284</v>
-      </c>
+      <c r="N82" s="2"/>
       <c r="O82" t="s" s="2">
         <v>38</v>
       </c>
@@ -9860,7 +9946,7 @@
         <v>38</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>285</v>
+        <v>365</v>
       </c>
       <c r="AF82" t="s" s="2">
         <v>39</v>
@@ -9869,21 +9955,21 @@
         <v>46</v>
       </c>
       <c r="AH82" t="s" s="2">
-        <v>286</v>
+        <v>38</v>
       </c>
       <c r="AI82" t="s" s="2">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="AJ82" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AK82" t="s" s="2">
-        <v>287</v>
+        <v>38</v>
       </c>
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>346</v>
+        <v>368</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
@@ -9903,23 +9989,19 @@
         <v>38</v>
       </c>
       <c r="I83" t="s" s="2">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>65</v>
+        <v>48</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>289</v>
+        <v>108</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>290</v>
-      </c>
-      <c r="M83" t="s" s="2">
-        <v>291</v>
-      </c>
-      <c r="N83" t="s" s="2">
-        <v>292</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="M83" s="2"/>
+      <c r="N83" s="2"/>
       <c r="O83" t="s" s="2">
         <v>38</v>
       </c>
@@ -9967,7 +10049,7 @@
         <v>38</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>293</v>
+        <v>110</v>
       </c>
       <c r="AF83" t="s" s="2">
         <v>39</v>
@@ -9985,23 +10067,23 @@
         <v>38</v>
       </c>
       <c r="AK83" t="s" s="2">
-        <v>294</v>
+        <v>111</v>
       </c>
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>347</v>
+        <v>369</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
-        <v>38</v>
+        <v>113</v>
       </c>
       <c r="D84" s="2"/>
       <c r="E84" t="s" s="2">
         <v>39</v>
       </c>
       <c r="F84" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G84" t="s" s="2">
         <v>38</v>
@@ -10013,15 +10095,17 @@
         <v>38</v>
       </c>
       <c r="J84" t="s" s="2">
-        <v>348</v>
+        <v>91</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>349</v>
+        <v>114</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>350</v>
-      </c>
-      <c r="M84" s="2"/>
+        <v>115</v>
+      </c>
+      <c r="M84" t="s" s="2">
+        <v>116</v>
+      </c>
       <c r="N84" s="2"/>
       <c r="O84" t="s" s="2">
         <v>38</v>
@@ -10058,19 +10142,19 @@
         <v>38</v>
       </c>
       <c r="AA84" t="s" s="2">
-        <v>38</v>
+        <v>94</v>
       </c>
       <c r="AB84" t="s" s="2">
-        <v>38</v>
+        <v>117</v>
       </c>
       <c r="AC84" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AD84" t="s" s="2">
-        <v>38</v>
+        <v>95</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>347</v>
+        <v>118</v>
       </c>
       <c r="AF84" t="s" s="2">
         <v>39</v>
@@ -10082,17 +10166,758 @@
         <v>38</v>
       </c>
       <c r="AI84" t="s" s="2">
-        <v>38</v>
+        <v>97</v>
       </c>
       <c r="AJ84" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AK84" t="s" s="2">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="s" s="2">
+        <v>369</v>
+      </c>
+      <c r="B85" t="s" s="2">
+        <v>370</v>
+      </c>
+      <c r="C85" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D85" s="2"/>
+      <c r="E85" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="F85" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="G85" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="H85" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I85" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J85" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="K85" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="L85" t="s" s="2">
+        <v>285</v>
+      </c>
+      <c r="M85" t="s" s="2">
+        <v>286</v>
+      </c>
+      <c r="N85" s="2"/>
+      <c r="O85" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="P85" s="2"/>
+      <c r="Q85" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="R85" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="S85" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T85" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U85" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V85" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W85" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X85" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y85" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z85" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA85" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB85" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC85" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD85" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE85" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="AF85" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AG85" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AH85" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AI85" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AJ85" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AK85" t="s" s="2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="86" hidden="true">
+      <c r="A86" t="s" s="2">
+        <v>371</v>
+      </c>
+      <c r="B86" s="2"/>
+      <c r="C86" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D86" s="2"/>
+      <c r="E86" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="F86" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="G86" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="H86" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I86" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="J86" t="s" s="2">
+        <v>288</v>
+      </c>
+      <c r="K86" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="L86" t="s" s="2">
+        <v>290</v>
+      </c>
+      <c r="M86" t="s" s="2">
+        <v>291</v>
+      </c>
+      <c r="N86" t="s" s="2">
+        <v>292</v>
+      </c>
+      <c r="O86" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="P86" s="2"/>
+      <c r="Q86" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="R86" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="S86" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T86" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U86" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V86" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W86" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X86" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y86" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z86" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA86" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB86" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC86" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD86" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE86" t="s" s="2">
+        <v>293</v>
+      </c>
+      <c r="AF86" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AG86" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AH86" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AI86" t="s" s="2">
+        <v>58</v>
+      </c>
+      <c r="AJ86" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AK86" t="s" s="2">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="87" hidden="true">
+      <c r="A87" t="s" s="2">
+        <v>372</v>
+      </c>
+      <c r="B87" s="2"/>
+      <c r="C87" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D87" s="2"/>
+      <c r="E87" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="F87" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="G87" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="H87" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="I87" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="J87" t="s" s="2">
+        <v>66</v>
+      </c>
+      <c r="K87" t="s" s="2">
+        <v>296</v>
+      </c>
+      <c r="L87" t="s" s="2">
+        <v>297</v>
+      </c>
+      <c r="M87" s="2"/>
+      <c r="N87" t="s" s="2">
+        <v>298</v>
+      </c>
+      <c r="O87" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="P87" t="s" s="2">
+        <v>299</v>
+      </c>
+      <c r="Q87" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="R87" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="S87" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T87" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U87" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V87" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W87" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="X87" t="s" s="2">
+        <v>300</v>
+      </c>
+      <c r="Y87" t="s" s="2">
+        <v>301</v>
+      </c>
+      <c r="Z87" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA87" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB87" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC87" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD87" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE87" t="s" s="2">
+        <v>302</v>
+      </c>
+      <c r="AF87" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AG87" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AH87" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AI87" t="s" s="2">
+        <v>58</v>
+      </c>
+      <c r="AJ87" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AK87" t="s" s="2">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="88" hidden="true">
+      <c r="A88" t="s" s="2">
+        <v>373</v>
+      </c>
+      <c r="B88" s="2"/>
+      <c r="C88" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D88" s="2"/>
+      <c r="E88" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="F88" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="G88" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="H88" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I88" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="J88" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="K88" t="s" s="2">
+        <v>305</v>
+      </c>
+      <c r="L88" t="s" s="2">
+        <v>306</v>
+      </c>
+      <c r="M88" s="2"/>
+      <c r="N88" t="s" s="2">
+        <v>307</v>
+      </c>
+      <c r="O88" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="P88" s="2"/>
+      <c r="Q88" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="R88" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="S88" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T88" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U88" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V88" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W88" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X88" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y88" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z88" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA88" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB88" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC88" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD88" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE88" t="s" s="2">
+        <v>308</v>
+      </c>
+      <c r="AF88" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AG88" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AH88" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AI88" t="s" s="2">
+        <v>58</v>
+      </c>
+      <c r="AJ88" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AK88" t="s" s="2">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="89" hidden="true">
+      <c r="A89" t="s" s="2">
+        <v>374</v>
+      </c>
+      <c r="B89" s="2"/>
+      <c r="C89" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D89" s="2"/>
+      <c r="E89" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="F89" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="G89" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="H89" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I89" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="J89" t="s" s="2">
+        <v>60</v>
+      </c>
+      <c r="K89" t="s" s="2">
+        <v>311</v>
+      </c>
+      <c r="L89" t="s" s="2">
+        <v>312</v>
+      </c>
+      <c r="M89" s="2"/>
+      <c r="N89" t="s" s="2">
+        <v>313</v>
+      </c>
+      <c r="O89" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="P89" s="2"/>
+      <c r="Q89" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="R89" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="S89" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T89" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U89" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V89" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W89" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X89" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y89" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z89" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA89" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB89" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC89" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD89" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE89" t="s" s="2">
+        <v>314</v>
+      </c>
+      <c r="AF89" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AG89" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AH89" t="s" s="2">
+        <v>315</v>
+      </c>
+      <c r="AI89" t="s" s="2">
+        <v>58</v>
+      </c>
+      <c r="AJ89" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AK89" t="s" s="2">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="90" hidden="true">
+      <c r="A90" t="s" s="2">
+        <v>375</v>
+      </c>
+      <c r="B90" s="2"/>
+      <c r="C90" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D90" s="2"/>
+      <c r="E90" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="F90" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="G90" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="H90" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I90" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="J90" t="s" s="2">
+        <v>66</v>
+      </c>
+      <c r="K90" t="s" s="2">
+        <v>318</v>
+      </c>
+      <c r="L90" t="s" s="2">
+        <v>319</v>
+      </c>
+      <c r="M90" t="s" s="2">
+        <v>320</v>
+      </c>
+      <c r="N90" t="s" s="2">
+        <v>321</v>
+      </c>
+      <c r="O90" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="P90" s="2"/>
+      <c r="Q90" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="R90" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="S90" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T90" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U90" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V90" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W90" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X90" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y90" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z90" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA90" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB90" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC90" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD90" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE90" t="s" s="2">
+        <v>322</v>
+      </c>
+      <c r="AF90" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AG90" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AH90" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AI90" t="s" s="2">
+        <v>58</v>
+      </c>
+      <c r="AJ90" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AK90" t="s" s="2">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="91" hidden="true">
+      <c r="A91" t="s" s="2">
+        <v>376</v>
+      </c>
+      <c r="B91" s="2"/>
+      <c r="C91" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D91" s="2"/>
+      <c r="E91" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="F91" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="G91" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="H91" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I91" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J91" t="s" s="2">
+        <v>377</v>
+      </c>
+      <c r="K91" t="s" s="2">
+        <v>378</v>
+      </c>
+      <c r="L91" t="s" s="2">
+        <v>379</v>
+      </c>
+      <c r="M91" s="2"/>
+      <c r="N91" s="2"/>
+      <c r="O91" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="P91" s="2"/>
+      <c r="Q91" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="R91" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="S91" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T91" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U91" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V91" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W91" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X91" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y91" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z91" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA91" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB91" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC91" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD91" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE91" t="s" s="2">
+        <v>376</v>
+      </c>
+      <c r="AF91" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AG91" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AH91" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AI91" t="s" s="2">
+        <v>58</v>
+      </c>
+      <c r="AJ91" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AK91" t="s" s="2">
         <v>38</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AK84">
+  <autoFilter ref="A1:AK91">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -10102,7 +10927,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI83">
+  <conditionalFormatting sqref="A2:AI90">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>
